--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_35.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2770552.784333166</v>
+        <v>2776792.590936877</v>
       </c>
     </row>
     <row r="7">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.7587050448881</v>
+        <v>237.403751315303</v>
       </c>
       <c r="C11" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>13.91332762480598</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.632627768728</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1427,7 +1427,7 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
@@ -1436,7 +1436,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>132.8568435633448</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
         <v>120.2716844800353</v>
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797664</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433872</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572825</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124557</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T13" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V13" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W13" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X13" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>335.758705044888</v>
+        <v>308.4814076947114</v>
       </c>
       <c r="C14" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
         <v>247.6326277687279</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>92.26424210780092</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598764</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1765,25 +1765,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.77987829572818</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S16" t="n">
-        <v>142.7938887128497</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T16" t="n">
         <v>172.5738126575766</v>
@@ -1828,7 +1828,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X16" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y16" t="n">
         <v>171.6095167335022</v>
@@ -1847,19 +1847,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>307.7079050020903</v>
+        <v>64.56182092825715</v>
       </c>
       <c r="E17" t="n">
-        <v>124.9536434626494</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,13 +1901,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y17" t="n">
         <v>339.262802037461</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1968,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2002,25 +2002,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D19" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H19" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870209</v>
       </c>
       <c r="V19" t="n">
         <v>205.1625067052354</v>
@@ -2084,19 +2084,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>292.6298770457047</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687278</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
@@ -2138,13 +2138,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
-        <v>270.276642040442</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y20" t="n">
         <v>339.262802037461</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2239,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D22" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H22" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403088</v>
       </c>
       <c r="V23" t="n">
         <v>280.7771218515423</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2491,10 +2491,10 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572815</v>
+        <v>97.77987829572787</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>41.95701605145478</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T25" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V25" t="n">
         <v>205.1625067052354</v>
@@ -2570,7 +2570,7 @@
         <v>369.3447958805275</v>
       </c>
       <c r="H26" t="n">
-        <v>253.0308346143945</v>
+        <v>177.455938775063</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>328.1541709055431</v>
       </c>
       <c r="Y26" t="n">
-        <v>269.0861130437948</v>
+        <v>344.6610088831276</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247658</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9.557480642843222</v>
+        <v>138.2550504090113</v>
       </c>
       <c r="C28" t="n">
         <v>125.6698913257019</v>
@@ -2728,10 +2728,10 @@
         <v>124.4488784861022</v>
       </c>
       <c r="H28" t="n">
-        <v>103.1780851413948</v>
+        <v>29.25600601213874</v>
       </c>
       <c r="I28" t="n">
-        <v>54.77549063691213</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2792,19 +2792,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E29" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H29" t="n">
         <v>247.6326277687279</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -2852,10 +2852,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y29" t="n">
         <v>339.262802037461</v>
@@ -2950,25 +2950,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D31" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3004,13 +3004,13 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V31" t="n">
         <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179983</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
         <v>178.7345187704446</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
         <v>204.0200353403093</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433937</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572818</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3241,16 +3241,16 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052362</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W34" t="n">
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3269,10 +3269,10 @@
         <v>318.2977551524149</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E35" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>359.9009091231188</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>156.9428335210276</v>
+        <v>91.80914937983471</v>
       </c>
       <c r="U35" t="n">
         <v>204.0200353403094</v>
@@ -3326,7 +3326,7 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W35" t="n">
-        <v>147.6721943364645</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X35" t="n">
         <v>322.7559640598764</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572818</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145473</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S37" t="n">
         <v>142.7938887128493</v>
@@ -3478,7 +3478,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U37" t="n">
-        <v>239.2367015870202</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
         <v>205.1625067052354</v>
@@ -3487,7 +3487,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y37" t="n">
         <v>171.6095167335022</v>
@@ -3512,13 +3512,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231188</v>
+        <v>261.5459553935323</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>179.4384479484333</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,13 +3554,13 @@
         <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
         <v>302.2658320988204</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797657</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433864</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572818</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124561</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128487</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3724,7 +3724,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X40" t="n">
-        <v>178.7345187704445</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
         <v>171.6095167335022</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>377.3356348178139</v>
+        <v>377.335634817814</v>
       </c>
       <c r="C41" t="n">
         <v>359.8746849253409</v>
@@ -3746,19 +3746,19 @@
         <v>349.2848347750163</v>
       </c>
       <c r="E41" t="n">
-        <v>376.5321632265951</v>
+        <v>376.5321632265952</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>401.4778388960448</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>405.5235188077868</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>211.3014670334274</v>
       </c>
       <c r="I41" t="n">
-        <v>36.17872292725932</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>198.5197632939535</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>117.4075250198333</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>322.3540516244682</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>343.8427618717463</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>364.3328938328024</v>
       </c>
       <c r="Y41" t="n">
-        <v>380.8397318103869</v>
+        <v>380.839731810387</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>174.4337733362706</v>
+        <v>160.2696064557585</v>
       </c>
       <c r="C43" t="n">
-        <v>69.3697789438699</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>83.53394582438077</v>
       </c>
       <c r="S43" t="n">
-        <v>184.3708184857752</v>
+        <v>184.3708184857753</v>
       </c>
       <c r="T43" t="n">
-        <v>214.1507424305025</v>
+        <v>214.1507424305026</v>
       </c>
       <c r="U43" t="n">
-        <v>280.8136313599462</v>
+        <v>280.8136313599463</v>
       </c>
       <c r="V43" t="n">
-        <v>246.7394364781613</v>
+        <v>246.7394364781614</v>
       </c>
       <c r="W43" t="n">
-        <v>281.1247914909243</v>
+        <v>281.1247914909244</v>
       </c>
       <c r="X43" t="n">
         <v>220.3114485433705</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.1864465064281</v>
+        <v>213.1864465064282</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3989,13 +3989,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
-        <v>0.2904874124731887</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,19 +4025,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>168.1158122680949</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>153.2827551736249</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>32.8332365913642</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1301.367519464212</v>
+        <v>1400.715957574904</v>
       </c>
       <c r="C11" t="n">
-        <v>979.854635471874</v>
+        <v>1079.203073582566</v>
       </c>
       <c r="D11" t="n">
-        <v>669.0385698131968</v>
+        <v>768.3870079238886</v>
       </c>
       <c r="E11" t="n">
-        <v>330.6999501630258</v>
+        <v>430.0483882737176</v>
       </c>
       <c r="F11" t="n">
-        <v>316.646083875343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G11" t="n">
-        <v>316.646083875343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5039,25 +5039,25 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
         <v>3266.588755052368</v>
@@ -5109,22 +5109,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5133,13 +5133,13 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052946</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C13" t="n">
-        <v>637.979699825461</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268786</v>
       </c>
       <c r="F13" t="n">
         <v>335.4089181770415</v>
@@ -5197,13 +5197,13 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
         <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5218,13 +5218,13 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
@@ -5242,7 +5242,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874611</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2018.472742224994</v>
+        <v>1654.93647038346</v>
       </c>
       <c r="C14" t="n">
-        <v>1696.959858232655</v>
+        <v>1333.423586391121</v>
       </c>
       <c r="D14" t="n">
-        <v>1386.143792573978</v>
+        <v>1022.607520732444</v>
       </c>
       <c r="E14" t="n">
-        <v>1047.805172923807</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="F14" t="n">
-        <v>684.268901082273</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G14" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084341</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.605821609171</v>
+        <v>3104.236671416636</v>
       </c>
       <c r="U14" t="n">
-        <v>3119.52497783108</v>
+        <v>2898.155827638546</v>
       </c>
       <c r="V14" t="n">
-        <v>3119.52497783108</v>
+        <v>2614.542573243049</v>
       </c>
       <c r="W14" t="n">
-        <v>3026.328773681787</v>
+        <v>2309.223550921008</v>
       </c>
       <c r="X14" t="n">
-        <v>2700.31264836878</v>
+        <v>2309.223550921008</v>
       </c>
       <c r="Y14" t="n">
-        <v>2357.622949341042</v>
+        <v>1966.533851893269</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5331,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D15" t="n">
         <v>618.1564155387305</v>
@@ -5343,46 +5343,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927785</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052945</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254609</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611985</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H16" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K16" t="n">
         <v>408.6327023328087</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874605</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1806.349924052246</v>
+        <v>1522.73666965675</v>
       </c>
       <c r="C17" t="n">
-        <v>1484.837040059908</v>
+        <v>1201.223785664412</v>
       </c>
       <c r="D17" t="n">
-        <v>1174.020974401231</v>
+        <v>1136.009825130819</v>
       </c>
       <c r="E17" t="n">
-        <v>1047.805172923807</v>
+        <v>797.6712054806479</v>
       </c>
       <c r="F17" t="n">
-        <v>684.268901082273</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G17" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="U17" t="n">
-        <v>3119.52497783108</v>
+        <v>3119.524977831082</v>
       </c>
       <c r="V17" t="n">
-        <v>3119.52497783108</v>
+        <v>2835.911723435585</v>
       </c>
       <c r="W17" t="n">
-        <v>2814.20595550904</v>
+        <v>2530.592701113544</v>
       </c>
       <c r="X17" t="n">
-        <v>2488.189830196033</v>
+        <v>2204.576575800537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2145.500131168295</v>
+        <v>1861.886876772799</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254603</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611979</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
-        <v>158.1401341315256</v>
+        <v>158.1401341315257</v>
       </c>
       <c r="K19" t="n">
-        <v>408.6327023328086</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337114</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M19" t="n">
         <v>1162.360316885667</v>
@@ -5689,34 +5689,34 @@
         <v>1896.109063016758</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702825</v>
       </c>
       <c r="Q19" t="n">
         <v>2299.337630107746</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V19" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W19" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X19" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1680.134122574823</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C20" t="n">
-        <v>1358.621238582484</v>
+        <v>979.854635471874</v>
       </c>
       <c r="D20" t="n">
-        <v>1047.805172923807</v>
+        <v>979.854635471874</v>
       </c>
       <c r="E20" t="n">
-        <v>1047.805172923807</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="F20" t="n">
-        <v>684.268901082273</v>
+        <v>684.2689010822733</v>
       </c>
       <c r="G20" t="n">
-        <v>316.6460838753429</v>
+        <v>316.646083875343</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,16 +5750,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T20" t="n">
-        <v>3167.077706941466</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U20" t="n">
-        <v>2960.996863163376</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V20" t="n">
-        <v>2960.996863163376</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W20" t="n">
-        <v>2687.990154031616</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X20" t="n">
-        <v>2361.97402871861</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y20" t="n">
-        <v>2019.284329690871</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="21">
@@ -5820,10 +5820,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
@@ -5832,10 +5832,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,10 +5847,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052944</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254608</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M22" t="n">
-        <v>1162.360316885666</v>
+        <v>1162.360316885667</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843937</v>
+        <v>1550.274078843938</v>
       </c>
       <c r="O22" t="n">
-        <v>1896.109063016757</v>
+        <v>1896.109063016758</v>
       </c>
       <c r="P22" t="n">
-        <v>2175.221948702823</v>
+        <v>2175.221948702824</v>
       </c>
       <c r="Q22" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105845</v>
+        <v>1938.403572105846</v>
       </c>
       <c r="U22" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V22" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W22" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.547945832862</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874608</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J23" t="n">
         <v>437.4316968760676</v>
       </c>
       <c r="K23" t="n">
-        <v>771.2510705659141</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L23" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M23" t="n">
-        <v>1755.817188486248</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N23" t="n">
-        <v>2302.59600554503</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O23" t="n">
-        <v>2805.568476424367</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P23" t="n">
-        <v>3474.791320094414</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q23" t="n">
-        <v>3933.269522603402</v>
+        <v>3977.401766380299</v>
       </c>
       <c r="R23" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W23" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.1786549456133</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C24" t="n">
-        <v>781.7256256644863</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D24" t="n">
-        <v>632.7912160032351</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E24" t="n">
-        <v>473.5537609977796</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F24" t="n">
-        <v>327.0192030246646</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G24" t="n">
-        <v>190.6561028572835</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H24" t="n">
-        <v>100.1542084951511</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J24" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K24" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L24" t="n">
         <v>779.7865456803188</v>
@@ -6081,7 +6081,7 @@
         <v>1700.585914457089</v>
       </c>
       <c r="O24" t="n">
-        <v>2111.547193875143</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P24" t="n">
         <v>2422.046785351246</v>
@@ -6090,28 +6090,28 @@
         <v>2579.688342997846</v>
       </c>
       <c r="R24" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S24" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T24" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.463102761698</v>
       </c>
       <c r="U24" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V24" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.243147664371</v>
       </c>
       <c r="W24" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.005790936169</v>
       </c>
       <c r="X24" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y24" t="n">
-        <v>1124.393991965681</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2517.474464532006</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C25" t="n">
-        <v>2395.987914552173</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D25" t="n">
-        <v>2293.32090808791</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E25" t="n">
-        <v>2192.85744745359</v>
+        <v>449.4840331913839</v>
       </c>
       <c r="F25" t="n">
-        <v>2093.417132903753</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G25" t="n">
-        <v>1973.163929226546</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H25" t="n">
-        <v>1874.396375392477</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>1824.520331158896</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J25" t="n">
-        <v>1916.148348858238</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K25" t="n">
-        <v>2166.640917059521</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L25" t="n">
-        <v>2529.706100760424</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M25" t="n">
-        <v>2920.368531612379</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N25" t="n">
-        <v>3308.282293570651</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O25" t="n">
-        <v>3654.11727774347</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P25" t="n">
-        <v>3933.230163429536</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q25" t="n">
-        <v>4057.345844834458</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R25" t="n">
-        <v>4014.965020540059</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S25" t="n">
-        <v>3870.728769314959</v>
+        <v>2127.355355052752</v>
       </c>
       <c r="T25" t="n">
-        <v>3696.411786832558</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U25" t="n">
-        <v>3454.758552906275</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V25" t="n">
-        <v>3247.523697648461</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W25" t="n">
-        <v>3005.556160559574</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X25" t="n">
-        <v>2825.016242609629</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>2651.673296414172</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2065.823947814752</v>
+        <v>1989.485669189164</v>
       </c>
       <c r="C26" t="n">
-        <v>1738.858329634872</v>
+        <v>1662.520051009284</v>
       </c>
       <c r="D26" t="n">
-        <v>1422.589529788652</v>
+        <v>1346.251251163065</v>
       </c>
       <c r="E26" t="n">
-        <v>1078.798175950939</v>
+        <v>1002.459897325352</v>
       </c>
       <c r="F26" t="n">
-        <v>709.809169921863</v>
+        <v>633.4708912962756</v>
       </c>
       <c r="G26" t="n">
-        <v>336.7336185273907</v>
+        <v>260.3953399018033</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
         <v>924.7493799910139</v>
@@ -6245,31 +6245,31 @@
         <v>3672.421873296411</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S26" t="n">
-        <v>3989.052075122084</v>
+        <v>3989.052075122085</v>
       </c>
       <c r="T26" t="n">
         <v>3825.071226266838</v>
       </c>
       <c r="U26" t="n">
-        <v>3613.537648301205</v>
+        <v>3613.537648301206</v>
       </c>
       <c r="V26" t="n">
-        <v>3324.471659718166</v>
+        <v>3324.471659718167</v>
       </c>
       <c r="W26" t="n">
-        <v>3013.699903208583</v>
+        <v>3013.699903208584</v>
       </c>
       <c r="X26" t="n">
         <v>2682.231043708035</v>
       </c>
       <c r="Y26" t="n">
-        <v>2410.426889118343</v>
+        <v>2334.088610492755</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
@@ -6324,28 +6324,28 @@
         <v>2422.046785351246</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U27" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y27" t="n">
         <v>1124.393991965682</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>812.2701895825941</v>
+        <v>682.2726443642424</v>
       </c>
       <c r="C28" t="n">
-        <v>685.3309054152185</v>
+        <v>555.3333601968668</v>
       </c>
       <c r="D28" t="n">
-        <v>577.211164763414</v>
+        <v>447.2136195450624</v>
       </c>
       <c r="E28" t="n">
-        <v>471.2949699415522</v>
+        <v>341.2974247232005</v>
       </c>
       <c r="F28" t="n">
-        <v>366.4019212041732</v>
+        <v>236.4043759858215</v>
       </c>
       <c r="G28" t="n">
-        <v>240.6959833394234</v>
+        <v>110.6984381210717</v>
       </c>
       <c r="H28" t="n">
-        <v>136.4756953178125</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
         <v>167.4307098188214</v>
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388312</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467794</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557145</v>
+        <v>270.0260478557146</v>
       </c>
       <c r="K29" t="n">
         <v>924.7493799910139</v>
@@ -6482,31 +6482,31 @@
         <v>3672.421873296411</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603402</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6537,7 +6537,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J30" t="n">
         <v>174.8241863873064</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G31" t="n">
         <v>229.7905149643394</v>
@@ -6616,19 +6616,19 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6637,7 +6637,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6664,7 +6664,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697161</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038485</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388314</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467788</v>
+        <v>698.9037015467798</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455608</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.879634793969</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1872.543307058812</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285458</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164795</v>
+        <v>2826.495488321722</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768668</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277655</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834459</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309626</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641921</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468335</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833288</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805548</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6783,22 +6783,22 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899671</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257047</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913849</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668915</v>
+        <v>81.14691689668918</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
@@ -6892,16 +6892,16 @@
         <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.299882151967</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1457.522709123157</v>
+        <v>1430.000155131663</v>
       </c>
       <c r="C35" t="n">
-        <v>1136.009825130819</v>
+        <v>1108.487271139325</v>
       </c>
       <c r="D35" t="n">
-        <v>1136.009825130819</v>
+        <v>797.6712054806478</v>
       </c>
       <c r="E35" t="n">
         <v>797.6712054806478</v>
@@ -6926,19 +6926,19 @@
         <v>434.1349336391136</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6947,40 +6947,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3262.764786084338</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3104.236671416633</v>
+        <v>3232.869307084085</v>
       </c>
       <c r="U35" t="n">
-        <v>2898.155827638543</v>
+        <v>3026.788463305995</v>
       </c>
       <c r="V35" t="n">
-        <v>2614.542573243046</v>
+        <v>2743.175208910498</v>
       </c>
       <c r="W35" t="n">
-        <v>2465.37874057995</v>
+        <v>2437.856186588457</v>
       </c>
       <c r="X35" t="n">
-        <v>2139.362615266944</v>
+        <v>2111.84006127545</v>
       </c>
       <c r="Y35" t="n">
-        <v>1796.672916239206</v>
+        <v>1769.150362247712</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7008,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
         <v>160.1893859228007</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>759.4662498052941</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C37" t="n">
-        <v>637.9796998254604</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D37" t="n">
-        <v>535.3126933611981</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E37" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F37" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G37" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H37" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>158.1401341315248</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K37" t="n">
         <v>408.6327023328078</v>
@@ -7138,7 +7138,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y37" t="n">
-        <v>893.6650816874604</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1949.589732305504</v>
+        <v>1301.367519464211</v>
       </c>
       <c r="C38" t="n">
-        <v>1628.076848313166</v>
+        <v>979.8546354718721</v>
       </c>
       <c r="D38" t="n">
-        <v>1317.260782654489</v>
+        <v>669.038569813195</v>
       </c>
       <c r="E38" t="n">
-        <v>978.9221630043178</v>
+        <v>330.6999501630241</v>
       </c>
       <c r="F38" t="n">
-        <v>615.3858911627835</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G38" t="n">
-        <v>247.7630739558534</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912077</v>
       </c>
       <c r="K38" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810541</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S38" t="n">
-        <v>3262.764786084338</v>
+        <v>3262.764786084337</v>
       </c>
       <c r="T38" t="n">
-        <v>3262.764786084338</v>
+        <v>3104.236671416632</v>
       </c>
       <c r="U38" t="n">
-        <v>3262.764786084338</v>
+        <v>2898.155827638542</v>
       </c>
       <c r="V38" t="n">
-        <v>3262.764786084338</v>
+        <v>2614.542573243045</v>
       </c>
       <c r="W38" t="n">
-        <v>2957.445763762297</v>
+        <v>2309.223550921004</v>
       </c>
       <c r="X38" t="n">
-        <v>2631.429638449291</v>
+        <v>1983.207425607997</v>
       </c>
       <c r="Y38" t="n">
-        <v>2288.739939421553</v>
+        <v>1640.517726580259</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.4662498052943</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9796998254607</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D40" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E40" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F40" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G40" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J40" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315254</v>
       </c>
       <c r="K40" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328084</v>
       </c>
       <c r="L40" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337111</v>
       </c>
       <c r="M40" t="n">
         <v>1162.360316885667</v>
@@ -7357,13 +7357,13 @@
         <v>2256.956805813346</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T40" t="n">
         <v>1938.403572105846</v>
       </c>
       <c r="U40" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179563</v>
       </c>
       <c r="V40" t="n">
         <v>1489.515482921749</v>
@@ -7372,10 +7372,10 @@
         <v>1247.547945832862</v>
       </c>
       <c r="X40" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882918</v>
       </c>
       <c r="Y40" t="n">
-        <v>893.6650816874607</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1199.714546587953</v>
+        <v>2191.759093870781</v>
       </c>
       <c r="C41" t="n">
-        <v>836.2047638350832</v>
+        <v>1828.249311117911</v>
       </c>
       <c r="D41" t="n">
-        <v>483.3917994158747</v>
+        <v>1475.436346698703</v>
       </c>
       <c r="E41" t="n">
-        <v>103.0562810051726</v>
+        <v>1095.100828288001</v>
       </c>
       <c r="F41" t="n">
-        <v>103.0562810051726</v>
+        <v>689.5676576859352</v>
       </c>
       <c r="G41" t="n">
-        <v>103.0562810051726</v>
+        <v>279.9479417184737</v>
       </c>
       <c r="H41" t="n">
-        <v>103.0562810051726</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329463</v>
@@ -7424,37 +7424,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T41" t="n">
-        <v>3125.080808180934</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U41" t="n">
-        <v>3006.48734856494</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V41" t="n">
-        <v>2680.877195408912</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="W41" t="n">
-        <v>2333.56127432634</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="X41" t="n">
-        <v>1965.548250252802</v>
+        <v>2957.592797535631</v>
       </c>
       <c r="Y41" t="n">
-        <v>1580.861652464533</v>
+        <v>2572.906199747361</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R42" t="n">
         <v>2564.909189125856</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>136.5826002138702</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J43" t="n">
-        <v>116.9789736563289</v>
+        <v>116.9789736563288</v>
       </c>
       <c r="K43" t="n">
-        <v>326.3103813824152</v>
+        <v>326.3103813824151</v>
       </c>
       <c r="L43" t="n">
-        <v>648.2144046081214</v>
+        <v>648.2144046081211</v>
       </c>
       <c r="M43" t="n">
-        <v>997.7156749848804</v>
+        <v>997.7156749848799</v>
       </c>
       <c r="N43" t="n">
-        <v>1344.468276467955</v>
+        <v>1344.468276467954</v>
       </c>
       <c r="O43" t="n">
-        <v>1649.142100165579</v>
+        <v>1649.142100165578</v>
       </c>
       <c r="P43" t="n">
-        <v>1887.093825376448</v>
+        <v>1887.093825376447</v>
       </c>
       <c r="Q43" t="n">
-        <v>1970.048346306172</v>
+        <v>1970.048346306171</v>
       </c>
       <c r="R43" t="n">
-        <v>1970.048346306172</v>
+        <v>1885.670623251241</v>
       </c>
       <c r="S43" t="n">
-        <v>1783.815196320541</v>
+        <v>1699.43747326561</v>
       </c>
       <c r="T43" t="n">
-        <v>1567.501315077609</v>
+        <v>1483.123592022678</v>
       </c>
       <c r="U43" t="n">
-        <v>1283.851182390795</v>
+        <v>1199.473459335863</v>
       </c>
       <c r="V43" t="n">
-        <v>1034.61942837245</v>
+        <v>950.2417053175184</v>
       </c>
       <c r="W43" t="n">
-        <v>750.6549925230311</v>
+        <v>666.2772694680998</v>
       </c>
       <c r="X43" t="n">
-        <v>528.1181758125558</v>
+        <v>443.7404527576245</v>
       </c>
       <c r="Y43" t="n">
-        <v>312.7783308565678</v>
+        <v>228.4006078016364</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1274.539111149739</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>905.5765942093274</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
-        <v>905.5765942093274</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E44" t="n">
-        <v>519.7883416110831</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F44" t="n">
-        <v>108.8024368214755</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>108.8024368214755</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329464</v>
@@ -7661,37 +7661,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450752</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="W44" t="n">
-        <v>2424.744041450752</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X44" t="n">
-        <v>2051.278283189672</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y44" t="n">
-        <v>1661.138951213861</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J45" t="n">
         <v>160.1893859228006</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.6890873082281</v>
+        <v>249.7936412903415</v>
       </c>
       <c r="C46" t="n">
-        <v>604.8580214762837</v>
+        <v>249.7936412903415</v>
       </c>
       <c r="D46" t="n">
-        <v>604.8580214762837</v>
+        <v>99.6770018780058</v>
       </c>
       <c r="E46" t="n">
-        <v>456.9449278938906</v>
+        <v>99.6770018780058</v>
       </c>
       <c r="F46" t="n">
-        <v>310.0549803959803</v>
+        <v>99.6770018780058</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>99.6770018780058</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>99.6770018780058</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J46" t="n">
         <v>111.6347488791189</v>
@@ -7837,19 +7837,19 @@
         <v>1424.011591242372</v>
       </c>
       <c r="U46" t="n">
-        <v>1424.011591242372</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V46" t="n">
-        <v>1169.327103036485</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="W46" t="n">
-        <v>1169.327103036485</v>
+        <v>880.2242361621287</v>
       </c>
       <c r="X46" t="n">
-        <v>941.3375521384678</v>
+        <v>652.2346852641114</v>
       </c>
       <c r="Y46" t="n">
-        <v>941.3375521384678</v>
+        <v>431.4421061205812</v>
       </c>
     </row>
   </sheetData>
@@ -8216,25 +8216,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>204.9488929688202</v>
+        <v>204.9488929688199</v>
       </c>
       <c r="L5" t="n">
-        <v>216.9827176214131</v>
+        <v>216.9827176214128</v>
       </c>
       <c r="M5" t="n">
-        <v>209.4457506959747</v>
+        <v>209.4457506959743</v>
       </c>
       <c r="N5" t="n">
-        <v>208.1743894071548</v>
+        <v>208.1743894071544</v>
       </c>
       <c r="O5" t="n">
-        <v>210.0431336424965</v>
+        <v>210.0431336424961</v>
       </c>
       <c r="P5" t="n">
-        <v>214.1164508613536</v>
+        <v>214.1164508613533</v>
       </c>
       <c r="Q5" t="n">
-        <v>209.4518774951213</v>
+        <v>209.4518774951211</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>120.8206749401527</v>
+        <v>120.8206749401526</v>
       </c>
       <c r="K6" t="n">
-        <v>127.557510107776</v>
+        <v>127.5575101077758</v>
       </c>
       <c r="L6" t="n">
-        <v>124.7263683031055</v>
+        <v>124.7263683031052</v>
       </c>
       <c r="M6" t="n">
-        <v>125.9973967537943</v>
+        <v>125.997396753794</v>
       </c>
       <c r="N6" t="n">
-        <v>114.7779861453289</v>
+        <v>114.7779861453286</v>
       </c>
       <c r="O6" t="n">
-        <v>127.4436711976962</v>
+        <v>127.4436711976959</v>
       </c>
       <c r="P6" t="n">
-        <v>121.8131315093599</v>
+        <v>121.8131315093597</v>
       </c>
       <c r="Q6" t="n">
-        <v>131.8522832059109</v>
+        <v>131.8522832059107</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8377,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>126.9466836733533</v>
+        <v>126.9466836733532</v>
       </c>
       <c r="M7" t="n">
-        <v>130.5562837312812</v>
+        <v>130.5562837312811</v>
       </c>
       <c r="N7" t="n">
-        <v>119.5150522573007</v>
+        <v>119.5150522573006</v>
       </c>
       <c r="O7" t="n">
-        <v>130.9097664653322</v>
+        <v>130.909766465332</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2704368695401</v>
+        <v>131.27043686954</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9653,13 +9653,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>277.2206841544135</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>21.13839585591558</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9893,10 +9893,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>12.68816924374633</v>
+        <v>78.40458911672974</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10130,10 +10130,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>12.68816924374633</v>
+        <v>78.40458911672974</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,19 +10355,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>287.001785447392</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>21.13839585591609</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>98.35495372958499</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>345.987581498313</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>27.27729735017658</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,22 +23543,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>210.0015899910195</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23735,10 +23735,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>243.1460840738333</v>
       </c>
       <c r="E17" t="n">
-        <v>210.0015899910198</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T17" t="n">
         <v>156.9428335210276</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23972,13 +23972,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E20" t="n">
-        <v>334.9552334536692</v>
+        <v>42.32535640796453</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958325</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,10 +24026,10 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>31.98919005837837</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>75.57489583933153</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24509,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>75.57489583933278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.6975697661681</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>73.92207912925606</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>54.77549063691213</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -25157,10 +25157,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25202,10 +25202,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>65.13368414119287</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25214,7 +25214,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>154.5936377623559</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25400,13 +25400,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>98.35495372958655</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
-        <v>68.19417982029461</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25442,13 +25442,13 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25637,16 +25637,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>401.4778388960448</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>405.5235188077868</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>289.2095575416538</v>
+        <v>77.90809050822654</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>36.1787229272594</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25676,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.7895549425092</v>
+        <v>103.7895549425093</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>198.5197632939536</v>
       </c>
       <c r="U41" t="n">
-        <v>128.1894400934021</v>
+        <v>245.5969651132354</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>322.3540516244683</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>343.8427618717464</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>14.16416688051217</v>
       </c>
       <c r="C43" t="n">
-        <v>92.47883530909127</v>
+        <v>161.8486142529612</v>
       </c>
       <c r="D43" t="n">
         <v>143.2172661725457</v>
       </c>
       <c r="E43" t="n">
-        <v>141.0357558009025</v>
+        <v>141.0357558009026</v>
       </c>
       <c r="F43" t="n">
         <v>140.0228411772646</v>
@@ -25801,10 +25801,10 @@
         <v>160.6276014133616</v>
       </c>
       <c r="H43" t="n">
-        <v>139.3568080686541</v>
+        <v>139.3568080686542</v>
       </c>
       <c r="I43" t="n">
-        <v>90.95421356417145</v>
+        <v>90.95421356417151</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>83.53394582438068</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25877,13 +25877,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.3172769748473</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,19 +25913,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>181.1251564493181</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>13.96406592500296</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>63.51918381847392</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>797187.0879100951</v>
+        <v>797187.087910095</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>678723.7370938098</v>
+        <v>678723.7370938099</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>678723.7370938096</v>
+        <v>678723.7370938098</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678723.7370938098</v>
+        <v>678723.7370938096</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>614846.4522064081</v>
+        <v>614846.452206408</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>606504.0266393082</v>
+        <v>606504.0266393083</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>716867.8250590188</v>
+        <v>716867.8250590187</v>
       </c>
       <c r="C2" t="n">
-        <v>716875.0867598068</v>
+        <v>716875.086759807</v>
       </c>
       <c r="D2" t="n">
-        <v>716932.5347880841</v>
+        <v>716932.5347880843</v>
       </c>
       <c r="E2" t="n">
+        <v>668964.6336536114</v>
+      </c>
+      <c r="F2" t="n">
+        <v>668964.6336536132</v>
+      </c>
+      <c r="G2" t="n">
+        <v>668964.6336536115</v>
+      </c>
+      <c r="H2" t="n">
         <v>668964.6336536129</v>
-      </c>
-      <c r="F2" t="n">
-        <v>668964.6336536126</v>
-      </c>
-      <c r="G2" t="n">
-        <v>668964.6336536129</v>
-      </c>
-      <c r="H2" t="n">
-        <v>668964.6336536127</v>
       </c>
       <c r="I2" t="n">
         <v>718411.5486312481</v>
       </c>
       <c r="J2" t="n">
-        <v>710445.1081709494</v>
+        <v>710445.1081709496</v>
       </c>
       <c r="K2" t="n">
-        <v>718411.5486312468</v>
+        <v>718411.5486312467</v>
       </c>
       <c r="L2" t="n">
-        <v>718411.5486312467</v>
+        <v>718411.5486312469</v>
       </c>
       <c r="M2" t="n">
-        <v>668964.6336536126</v>
+        <v>668964.6336536129</v>
       </c>
       <c r="N2" t="n">
-        <v>668964.6336536132</v>
+        <v>668964.6336536127</v>
       </c>
       <c r="O2" t="n">
-        <v>605087.3487662118</v>
+        <v>605087.3487662117</v>
       </c>
       <c r="P2" t="n">
         <v>596744.923199111</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3540.182044145911</v>
+        <v>3540.182044145884</v>
       </c>
       <c r="C3" t="n">
-        <v>23616.14021849341</v>
+        <v>23616.14021849392</v>
       </c>
       <c r="D3" t="n">
-        <v>175711.7703169795</v>
+        <v>175711.770316979</v>
       </c>
       <c r="E3" t="n">
-        <v>972725.1766621995</v>
+        <v>972725.1766621991</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,16 +26384,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902289</v>
+        <v>48646.25967902292</v>
       </c>
       <c r="J3" t="n">
-        <v>33261.54381834075</v>
+        <v>33261.54381834078</v>
       </c>
       <c r="K3" t="n">
-        <v>4318.565476533337</v>
+        <v>4318.565476533291</v>
       </c>
       <c r="L3" t="n">
-        <v>2.842170943040401e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>161600.4331051143</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>431781.059725429</v>
+        <v>429908.1492159134</v>
       </c>
       <c r="C4" t="n">
-        <v>424772.2061475763</v>
+        <v>423009.3587279729</v>
       </c>
       <c r="D4" t="n">
-        <v>371223.4544513617</v>
+        <v>370434.2549872374</v>
       </c>
       <c r="E4" t="n">
-        <v>57819.8256468976</v>
+        <v>57605.61344858622</v>
       </c>
       <c r="F4" t="n">
-        <v>57819.82564689771</v>
+        <v>57605.61344858622</v>
       </c>
       <c r="G4" t="n">
-        <v>57819.82564689769</v>
+        <v>57605.61344858622</v>
       </c>
       <c r="H4" t="n">
-        <v>57819.82564689766</v>
+        <v>57605.61344858624</v>
       </c>
       <c r="I4" t="n">
-        <v>81475.81413712149</v>
+        <v>80755.36360646601</v>
       </c>
       <c r="J4" t="n">
-        <v>76265.93634455974</v>
+        <v>75545.48581390422</v>
       </c>
       <c r="K4" t="n">
-        <v>81475.81413712156</v>
+        <v>80755.36360646605</v>
       </c>
       <c r="L4" t="n">
-        <v>81475.8141371216</v>
+        <v>80755.36360646604</v>
       </c>
       <c r="M4" t="n">
-        <v>57819.82564689769</v>
+        <v>57605.61344858627</v>
       </c>
       <c r="N4" t="n">
-        <v>57819.82564689769</v>
+        <v>57605.61344858625</v>
       </c>
       <c r="O4" t="n">
-        <v>16049.69410925231</v>
+        <v>15835.48191094085</v>
       </c>
       <c r="P4" t="n">
-        <v>10594.55926541523</v>
+        <v>10380.34706710381</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>33707.69021107268</v>
       </c>
       <c r="C5" t="n">
-        <v>34273.06548672896</v>
+        <v>34273.06548672897</v>
       </c>
       <c r="D5" t="n">
         <v>38745.80483114667</v>
@@ -26479,10 +26479,10 @@
         <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178177</v>
       </c>
       <c r="G5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178179</v>
       </c>
       <c r="H5" t="n">
         <v>78255.49332178176</v>
@@ -26491,25 +26491,25 @@
         <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>88924.11982349776</v>
+        <v>88924.11982349779</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.9416748061</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.94167480613</v>
       </c>
       <c r="M5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="N5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178173</v>
       </c>
       <c r="O5" t="n">
-        <v>74760.16241270163</v>
+        <v>74760.1624127016</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139326</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>247838.8930783712</v>
+        <v>249711.8035878867</v>
       </c>
       <c r="C6" t="n">
-        <v>234213.6749070081</v>
+        <v>235976.5223266112</v>
       </c>
       <c r="D6" t="n">
-        <v>131251.5051885963</v>
+        <v>132040.7046527213</v>
       </c>
       <c r="E6" t="n">
-        <v>-439835.861977266</v>
+        <v>-439621.6497789556</v>
       </c>
       <c r="F6" t="n">
-        <v>532889.3146849335</v>
+        <v>533103.5268832452</v>
       </c>
       <c r="G6" t="n">
-        <v>532889.3146849335</v>
+        <v>533103.5268832436</v>
       </c>
       <c r="H6" t="n">
-        <v>532889.3146849333</v>
+        <v>533103.5268832454</v>
       </c>
       <c r="I6" t="n">
-        <v>498911.5331402976</v>
+        <v>499631.983670953</v>
       </c>
       <c r="J6" t="n">
-        <v>511993.5081845511</v>
+        <v>512713.9587152069</v>
       </c>
       <c r="K6" t="n">
-        <v>543239.2273427858</v>
+        <v>543959.6778734413</v>
       </c>
       <c r="L6" t="n">
-        <v>547557.7928193188</v>
+        <v>548278.2433499747</v>
       </c>
       <c r="M6" t="n">
-        <v>371288.8815798189</v>
+        <v>371503.0937781307</v>
       </c>
       <c r="N6" t="n">
-        <v>532889.3146849337</v>
+        <v>533103.5268832447</v>
       </c>
       <c r="O6" t="n">
-        <v>514277.4922442578</v>
+        <v>514491.7044425692</v>
       </c>
       <c r="P6" t="n">
-        <v>511844.0233723025</v>
+        <v>512058.2355706139</v>
       </c>
     </row>
   </sheetData>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I2" t="n">
         <v>46.97513661859256</v>
@@ -26710,19 +26710,19 @@
         <v>41.57692977292598</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N2" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26738,19 +26738,19 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>29.60850856554856</v>
+        <v>29.60850856554912</v>
       </c>
       <c r="D3" t="n">
         <v>234.7800381259942</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26799,37 +26799,37 @@
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208614</v>
+        <v>1014.336461208615</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022922</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="K2" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="L2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>25.93464567230625</v>
+        <v>25.9346456723068</v>
       </c>
       <c r="D3" t="n">
-        <v>205.1715295604456</v>
+        <v>205.1715295604451</v>
       </c>
       <c r="E3" t="n">
-        <v>854.9966624673043</v>
+        <v>854.9966624673038</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.587667540470378e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063218</v>
+        <v>182.9350058063219</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859251</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.57692977292593</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="P2" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
     </row>
     <row r="3">
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.2557945244228</v>
+        <v>338.2557945244227</v>
       </c>
       <c r="I5" t="n">
-        <v>205.8870171021715</v>
+        <v>205.8870171021714</v>
       </c>
       <c r="J5" t="n">
-        <v>1.846836474752305</v>
+        <v>1.846836474752116</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>142.3921512027351</v>
+        <v>142.3921512027349</v>
       </c>
       <c r="S5" t="n">
-        <v>206.3076921432808</v>
+        <v>206.3076921432807</v>
       </c>
       <c r="T5" t="n">
         <v>222.5747993279678</v>
@@ -27713,7 +27713,7 @@
         <v>111.6203693698801</v>
       </c>
       <c r="I6" t="n">
-        <v>87.20392726424946</v>
+        <v>87.20392726424942</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>96.20370163137987</v>
+        <v>96.2037016313798</v>
       </c>
       <c r="S6" t="n">
         <v>170.5002273889784</v>
@@ -27792,13 +27792,13 @@
         <v>161.7524655996181</v>
       </c>
       <c r="I7" t="n">
-        <v>153.8448200693102</v>
+        <v>153.8448200693101</v>
       </c>
       <c r="J7" t="n">
-        <v>89.58433796725849</v>
+        <v>89.58433796725842</v>
       </c>
       <c r="K7" t="n">
-        <v>16.06626658870727</v>
+        <v>16.06626658870715</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>81.69115845829656</v>
+        <v>81.69115845829647</v>
       </c>
       <c r="R7" t="n">
         <v>174.8926752564284</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859252</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859136</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859267</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="23">
@@ -29056,7 +29056,7 @@
         <v>46.97513661859256</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J37" t="n">
-        <v>46.9751366185918</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859182</v>
       </c>
       <c r="L37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.9751366185926</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="C41" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="D41" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="E41" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="F41" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="G41" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="H41" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="I41" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="T41" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="U41" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="V41" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="W41" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="X41" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="Y41" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="C43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="D43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="E43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="F43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="G43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="H43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="I43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="J43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="K43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="L43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="M43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="N43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="O43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="P43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="R43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="S43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="T43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="U43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="V43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="W43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="X43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.398206845666671</v>
+        <v>5.398206845666614</v>
       </c>
     </row>
     <row r="44">
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1190291801630092</v>
+        <v>0.1190291801630114</v>
       </c>
       <c r="H5" t="n">
-        <v>1.219007591344418</v>
+        <v>1.219007591344441</v>
       </c>
       <c r="I5" t="n">
-        <v>4.588872468234417</v>
+        <v>4.588872468234503</v>
       </c>
       <c r="J5" t="n">
-        <v>10.10245287986021</v>
+        <v>10.1024528798604</v>
       </c>
       <c r="K5" t="n">
-        <v>15.14095807616039</v>
+        <v>15.14095807616068</v>
       </c>
       <c r="L5" t="n">
-        <v>18.78369734857409</v>
+        <v>18.78369734857445</v>
       </c>
       <c r="M5" t="n">
-        <v>20.90048253129801</v>
+        <v>20.9004825312984</v>
       </c>
       <c r="N5" t="n">
-        <v>21.23867418943616</v>
+        <v>21.23867418943655</v>
       </c>
       <c r="O5" t="n">
-        <v>20.05507777919023</v>
+        <v>20.05507777919061</v>
       </c>
       <c r="P5" t="n">
-        <v>17.11654489391594</v>
+        <v>17.11654489391626</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.85381237932817</v>
+        <v>12.85381237932841</v>
       </c>
       <c r="R5" t="n">
-        <v>7.476966738414634</v>
+        <v>7.476966738414775</v>
       </c>
       <c r="S5" t="n">
-        <v>2.712377442964575</v>
+        <v>2.712377442964626</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5210502361635732</v>
+        <v>0.5210502361635828</v>
       </c>
       <c r="U5" t="n">
-        <v>0.009522334413040736</v>
+        <v>0.009522334413040914</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06368622597117994</v>
+        <v>0.06368622597118112</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6150748666163958</v>
+        <v>0.6150748666164073</v>
       </c>
       <c r="I6" t="n">
-        <v>2.192705587165625</v>
+        <v>2.192705587165666</v>
       </c>
       <c r="J6" t="n">
-        <v>6.016951726513978</v>
+        <v>6.016951726514091</v>
       </c>
       <c r="K6" t="n">
-        <v>10.28392886658303</v>
+        <v>10.28392886658323</v>
       </c>
       <c r="L6" t="n">
-        <v>13.8280114767687</v>
+        <v>13.82801147676896</v>
       </c>
       <c r="M6" t="n">
-        <v>16.13663716822397</v>
+        <v>16.13663716822427</v>
       </c>
       <c r="N6" t="n">
-        <v>16.56372593800438</v>
+        <v>16.56372593800469</v>
       </c>
       <c r="O6" t="n">
-        <v>15.15257324674824</v>
+        <v>15.15257324674852</v>
       </c>
       <c r="P6" t="n">
-        <v>12.16127590497032</v>
+        <v>12.16127590497054</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.129490880110618</v>
+        <v>8.129490880110771</v>
       </c>
       <c r="R6" t="n">
-        <v>3.954132521263261</v>
+        <v>3.954132521263335</v>
       </c>
       <c r="S6" t="n">
-        <v>1.182943714859416</v>
+        <v>1.182943714859438</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2567001827522559</v>
+        <v>0.2567001827522607</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004189883287577629</v>
+        <v>0.004189883287577707</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0533923924952515</v>
+        <v>0.0533923924952525</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4747069078214183</v>
+        <v>0.4747069078214272</v>
       </c>
       <c r="I7" t="n">
-        <v>1.605654857948109</v>
+        <v>1.605654857948139</v>
       </c>
       <c r="J7" t="n">
-        <v>3.774842149414281</v>
+        <v>3.774842149414352</v>
       </c>
       <c r="K7" t="n">
-        <v>6.203225237175583</v>
+        <v>6.203225237175698</v>
       </c>
       <c r="L7" t="n">
-        <v>7.937992607884938</v>
+        <v>7.937992607885088</v>
       </c>
       <c r="M7" t="n">
-        <v>8.369500216323832</v>
+        <v>8.369500216323988</v>
       </c>
       <c r="N7" t="n">
-        <v>8.170492207932448</v>
+        <v>8.1704922079326</v>
       </c>
       <c r="O7" t="n">
-        <v>7.546771986510643</v>
+        <v>7.546771986510784</v>
       </c>
       <c r="P7" t="n">
-        <v>6.457567179607507</v>
+        <v>6.457567179607627</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.470884793397834</v>
+        <v>4.470884793397917</v>
       </c>
       <c r="R7" t="n">
-        <v>2.400716120741035</v>
+        <v>2.40071612074108</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9304837855763373</v>
+        <v>0.9304837855763547</v>
       </c>
       <c r="T7" t="n">
-        <v>0.22813113157062</v>
+        <v>0.2281311315706243</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002912312317922813</v>
+        <v>0.002912312317922867</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002919</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33503,7 +33503,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233474</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138795</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I41" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N41" t="n">
         <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R41" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,37 +34199,37 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H42" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J42" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34238,7 +34238,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34287,16 +34287,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L43" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N43" t="n">
         <v>300.7247737883114</v>
@@ -34305,19 +34305,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q43" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S43" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780294</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,25 +35565,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K13" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O13" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35814,7 +35814,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N16" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O16" t="n">
         <v>349.3282668412323</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859617</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K19" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L19" t="n">
         <v>366.7325087887907</v>
@@ -36054,13 +36054,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P19" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120752</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N22" t="n">
         <v>391.8320827861327</v>
@@ -36294,7 +36294,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3693751564862</v>
@@ -36358,28 +36358,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>675.9826703737854</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>80.7515943981403</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36522,16 +36522,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N25" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O25" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P25" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3693751564862</v>
@@ -36613,10 +36613,10 @@
         <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>263.4824740474658</v>
+        <v>329.1988939204492</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36850,10 +36850,10 @@
         <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>263.4824740474658</v>
+        <v>329.1988939204492</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,16 +36987,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
         <v>391.8320827861326</v>
@@ -37005,7 +37005,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P31" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3693751564862</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554004</v>
@@ -37075,19 +37075,19 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>825.9229012776185</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>529.1913967441351</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
         <v>59.61319854222472</v>
@@ -37151,7 +37151,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013291</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37309,7 +37309,7 @@
         <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302265</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.553553231658</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629113</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887907</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687115</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554004</v>
@@ -37622,7 +37622,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340053</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.5535532316588</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>50.97662345873286</v>
+        <v>50.97662345873277</v>
       </c>
       <c r="K43" t="n">
-        <v>211.4458663899862</v>
+        <v>211.4458663899861</v>
       </c>
       <c r="L43" t="n">
-        <v>325.1555790158648</v>
+        <v>325.1555790158646</v>
       </c>
       <c r="M43" t="n">
-        <v>353.0315862391504</v>
+        <v>353.0315862391503</v>
       </c>
       <c r="N43" t="n">
-        <v>350.2551530132067</v>
+        <v>350.2551530132066</v>
       </c>
       <c r="O43" t="n">
-        <v>307.7513370683064</v>
+        <v>307.7513370683063</v>
       </c>
       <c r="P43" t="n">
-        <v>240.355277990777</v>
+        <v>240.3552779907769</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.79244538356031</v>
+        <v>83.79244538356019</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_35.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_16_35.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2776792.590936877</v>
+        <v>2867697.917774032</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10908298.50741417</v>
+        <v>10898338.64379924</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1554851.299743202</v>
+        <v>1550619.452648044</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8276236.605893314</v>
+        <v>8279557.918714268</v>
       </c>
     </row>
     <row r="11">
@@ -1142,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>2.277281562086845</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1218,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1266,13 +1268,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.277281562086844</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1333,19 +1335,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.277281562086844</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>237.403751315303</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
         <v>318.297755152415</v>
@@ -1382,10 +1384,10 @@
         <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>203.4441683165565</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958329</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>156.9428335210276</v>
@@ -1427,13 +1429,13 @@
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1534,19 +1536,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404359</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1578,13 @@
         <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128497</v>
       </c>
       <c r="T13" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U13" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V13" t="n">
         <v>205.1625067052354</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>308.4814076947114</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G14" t="n">
-        <v>363.9465890348609</v>
+        <v>280.0180786561928</v>
       </c>
       <c r="H14" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T14" t="n">
         <v>156.9428335210276</v>
@@ -1667,10 +1669,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1765,25 +1767,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H16" t="n">
         <v>97.7798782957282</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,13 +1821,13 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U16" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V16" t="n">
         <v>205.1625067052354</v>
       </c>
       <c r="W16" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179992</v>
       </c>
       <c r="X16" t="n">
         <v>178.7345187704446</v>
@@ -1847,19 +1849,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D17" t="n">
-        <v>64.56182092825715</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E17" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F17" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G17" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,16 +1900,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>302.2658320988205</v>
+        <v>296.2842774481102</v>
       </c>
       <c r="X17" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y17" t="n">
         <v>339.262802037461</v>
@@ -1941,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2002,25 +2004,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C19" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D19" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E19" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F19" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G19" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H19" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I19" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S19" t="n">
         <v>142.7938887128493</v>
@@ -2056,7 +2058,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U19" t="n">
-        <v>239.2367015870209</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V19" t="n">
         <v>205.1625067052354</v>
@@ -2084,19 +2086,19 @@
         <v>318.297755152415</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E20" t="n">
-        <v>292.6298770457047</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G20" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T20" t="n">
         <v>156.9428335210276</v>
@@ -2141,13 +2143,13 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W20" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X20" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y20" t="n">
-        <v>339.262802037461</v>
+        <v>240.9078483078763</v>
       </c>
     </row>
     <row r="21">
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2239,25 +2241,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C22" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D22" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E22" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F22" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G22" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H22" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I22" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S22" t="n">
         <v>142.7938887128493</v>
@@ -2366,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T23" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210278</v>
       </c>
       <c r="U23" t="n">
-        <v>204.0200353403088</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V23" t="n">
         <v>280.7771218515423</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,25 +2478,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C25" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D25" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E25" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F25" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G25" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H25" t="n">
-        <v>97.77987829572787</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I25" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S25" t="n">
-        <v>142.7938887128492</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T25" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U25" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V25" t="n">
         <v>205.1625067052354</v>
@@ -2552,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>341.1569118905546</v>
+        <v>336.4753971986237</v>
       </c>
       <c r="C26" t="n">
-        <v>323.6959619980815</v>
+        <v>319.0144473061507</v>
       </c>
       <c r="D26" t="n">
-        <v>313.106111847757</v>
+        <v>308.4245971558269</v>
       </c>
       <c r="E26" t="n">
-        <v>340.3534402993358</v>
+        <v>335.6719256074049</v>
       </c>
       <c r="F26" t="n">
-        <v>365.2991159687855</v>
+        <v>360.6176012768546</v>
       </c>
       <c r="G26" t="n">
-        <v>369.3447958805275</v>
+        <v>364.6632811885966</v>
       </c>
       <c r="H26" t="n">
-        <v>177.455938775063</v>
+        <v>248.3493199224636</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>67.61083201524987</v>
+        <v>62.92931732331904</v>
       </c>
       <c r="T26" t="n">
-        <v>162.3410403666942</v>
+        <v>157.6595256747633</v>
       </c>
       <c r="U26" t="n">
-        <v>209.418242185976</v>
+        <v>204.7367274940451</v>
       </c>
       <c r="V26" t="n">
-        <v>286.1753286972089</v>
+        <v>281.4938140052781</v>
       </c>
       <c r="W26" t="n">
-        <v>307.6640389444871</v>
+        <v>302.9825242525562</v>
       </c>
       <c r="X26" t="n">
-        <v>328.1541709055431</v>
+        <v>323.4726562136122</v>
       </c>
       <c r="Y26" t="n">
-        <v>344.6610088831276</v>
+        <v>339.9794941911967</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2654,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247658</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.2550504090113</v>
+        <v>133.5735357170805</v>
       </c>
       <c r="C28" t="n">
-        <v>125.6698913257019</v>
+        <v>120.988376633771</v>
       </c>
       <c r="D28" t="n">
-        <v>107.0385432452864</v>
+        <v>85.27051425457302</v>
       </c>
       <c r="E28" t="n">
-        <v>104.8570328736432</v>
+        <v>100.1755181817123</v>
       </c>
       <c r="F28" t="n">
-        <v>103.8441182500053</v>
+        <v>99.16260355807442</v>
       </c>
       <c r="G28" t="n">
-        <v>124.4488784861022</v>
+        <v>119.7673637941714</v>
       </c>
       <c r="H28" t="n">
-        <v>29.25600601213874</v>
+        <v>98.49657044946396</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>50.09397594498129</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.35522289712137</v>
+        <v>42.67370820519051</v>
       </c>
       <c r="S28" t="n">
-        <v>148.1920955585159</v>
+        <v>143.5105808665851</v>
       </c>
       <c r="T28" t="n">
-        <v>177.9720195032432</v>
+        <v>173.2905048113124</v>
       </c>
       <c r="U28" t="n">
-        <v>244.6349084326869</v>
+        <v>239.953393740756</v>
       </c>
       <c r="V28" t="n">
-        <v>210.560713550902</v>
+        <v>205.8791988589712</v>
       </c>
       <c r="W28" t="n">
-        <v>244.946068563665</v>
+        <v>240.2645538717342</v>
       </c>
       <c r="X28" t="n">
-        <v>184.1327256161112</v>
+        <v>179.4512109241803</v>
       </c>
       <c r="Y28" t="n">
-        <v>177.0077235791688</v>
+        <v>172.326208887238</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.758705044888</v>
+        <v>336.4753971986237</v>
       </c>
       <c r="C29" t="n">
-        <v>318.2977551524149</v>
+        <v>319.0144473061507</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020903</v>
+        <v>308.4245971558261</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536692</v>
+        <v>335.6719256074049</v>
       </c>
       <c r="F29" t="n">
-        <v>359.9009091231188</v>
+        <v>360.6176012768546</v>
       </c>
       <c r="G29" t="n">
-        <v>363.9465890348608</v>
+        <v>364.6632811885966</v>
       </c>
       <c r="H29" t="n">
-        <v>247.6326277687279</v>
+        <v>248.3493199224636</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958326</v>
+        <v>62.92931732331904</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210276</v>
+        <v>157.6595256747633</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403093</v>
+        <v>204.7367274940462</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515423</v>
+        <v>281.4938140052781</v>
       </c>
       <c r="W29" t="n">
-        <v>302.2658320988204</v>
+        <v>302.9825242525562</v>
       </c>
       <c r="X29" t="n">
-        <v>322.7559640598764</v>
+        <v>323.4726562136122</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.262802037461</v>
+        <v>339.9794941911967</v>
       </c>
     </row>
     <row r="30">
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.8568435633447</v>
+        <v>133.5735357170805</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2716844800352</v>
+        <v>120.988376633771</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996198</v>
+        <v>102.3570285533555</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797658</v>
+        <v>83.0890038829298</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433866</v>
+        <v>99.16260355807442</v>
       </c>
       <c r="G31" t="n">
-        <v>119.0506716404356</v>
+        <v>119.7673637941714</v>
       </c>
       <c r="H31" t="n">
-        <v>97.7798782957282</v>
+        <v>98.49657044946396</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124552</v>
+        <v>50.09397594498129</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145476</v>
+        <v>42.67370820519051</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128493</v>
+        <v>143.5105808665851</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575766</v>
+        <v>173.2905048113124</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870207</v>
+        <v>239.953393740756</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052354</v>
+        <v>205.8791988589712</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179984</v>
+        <v>240.2645538717342</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704446</v>
+        <v>179.4512109241803</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335022</v>
+        <v>172.326208887238</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3085,7 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403097</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3193,19 +3195,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797657</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433937</v>
+        <v>98.44591140433864</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572818</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145473</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T34" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870209</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3250,7 +3252,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X34" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y34" t="n">
         <v>171.6095167335022</v>
@@ -3266,10 +3268,10 @@
         <v>335.758705044888</v>
       </c>
       <c r="C35" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D35" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3281,7 +3283,7 @@
         <v>363.9465890348608</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>180.3615956913139</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T35" t="n">
-        <v>91.80914937983471</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U35" t="n">
         <v>204.0200353403094</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3503,7 +3505,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C38" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
         <v>307.7079050020903</v>
@@ -3512,13 +3514,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>261.5459553935323</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3553,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>302.2658320988204</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598764</v>
+        <v>316.774409409166</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3676,10 +3678,10 @@
         <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.779878295728</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124561</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128487</v>
+        <v>142.7938887128492</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
       </c>
       <c r="U40" t="n">
-        <v>239.2367015870207</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V40" t="n">
         <v>205.1625067052354</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>377.335634817814</v>
+        <v>382.0171495097448</v>
       </c>
       <c r="C41" t="n">
-        <v>359.8746849253409</v>
+        <v>364.5561996172718</v>
       </c>
       <c r="D41" t="n">
-        <v>349.2848347750163</v>
+        <v>353.9663494669472</v>
       </c>
       <c r="E41" t="n">
-        <v>376.5321632265952</v>
+        <v>381.213677918526</v>
       </c>
       <c r="F41" t="n">
-        <v>401.4778388960448</v>
+        <v>330.0171124016728</v>
       </c>
       <c r="G41" t="n">
-        <v>405.5235188077868</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>211.3014670334274</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>108.4710696344401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.2012779858844</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3800,13 +3802,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>348.5242765636772</v>
       </c>
       <c r="X41" t="n">
-        <v>364.3328938328024</v>
+        <v>369.0144085247333</v>
       </c>
       <c r="Y41" t="n">
-        <v>380.839731810387</v>
+        <v>385.5212465023178</v>
       </c>
     </row>
     <row r="42">
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>160.2696064557585</v>
+        <v>179.1152880282015</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>166.5301289448921</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>99.58443310800322</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>145.7172704928334</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.3091161052924</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.038322760585</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>83.53394582438077</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.3708184857753</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>214.1507424305026</v>
+        <v>218.8322571224334</v>
       </c>
       <c r="U43" t="n">
-        <v>280.8136313599463</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>246.7394364781614</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>281.1247914909244</v>
+        <v>285.8063061828552</v>
       </c>
       <c r="X43" t="n">
-        <v>220.3114485433705</v>
+        <v>224.9929632353014</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.1864465064282</v>
+        <v>217.867961198359</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.0171495097448</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>111.1982424863081</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.1593535879757</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>410.2050334997177</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>293.8910722335847</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>108.4710696344401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.2012779858844</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.2784798051662</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.0355663163991</v>
       </c>
       <c r="W44" t="n">
-        <v>168.1158122680949</v>
+        <v>348.5242765636772</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>385.5212465023178</v>
       </c>
     </row>
     <row r="45">
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>166.5301289448921</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>144.5735028142297</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>32.8332365913642</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004737</v>
+        <v>88.21546051631159</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>189.0523331777061</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>218.8322571224334</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>285.4951460518771</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>251.4209511700922</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>285.8063061828552</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>217.867961198359</v>
       </c>
     </row>
   </sheetData>
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>5.430008330226618</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>5.430008330226618</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>5.430008330226618</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>5.430008330226618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.818422946316163</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.766452397176344</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>2.766452397176344</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2.766452397176344</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>5.326067231946981</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>5.326067231946981</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>7.782263285514764</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>7.782263285514764</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>10.3418781202854</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>7.730292736374945</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>7.730292736374945</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>5.430008330226618</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>5.430008330226618</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>5.430008330226618</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>5.430008330226618</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>5.430008330226618</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>5.430008330226618</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>2.818422946316163</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>2.818422946316163</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2.818422946316163</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.766452397176344</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2.766452397176344</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>5.222648450744128</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>5.222648450744128</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>7.782263285514764</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>7.782263285514764</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>10.3418781202854</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>10.3418781202854</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>10.3418781202854</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>10.3418781202854</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>10.3418781202854</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>7.730292736374945</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>5.11870735246449</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.818422946316163</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>2.818422946316163</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>2.818422946316163</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2.766452397176344</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>5.326067231946981</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>7.782263285514764</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>7.782263285514764</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>10.3418781202854</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>7.730292736374945</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>5.11870735246449</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>2.507121968554035</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2.507121968554035</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>0.206837562405708</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1400.715957574904</v>
+        <v>1973.837934697548</v>
       </c>
       <c r="C11" t="n">
-        <v>1079.203073582566</v>
+        <v>1652.32505070521</v>
       </c>
       <c r="D11" t="n">
-        <v>768.3870079238886</v>
+        <v>1341.508985046532</v>
       </c>
       <c r="E11" t="n">
-        <v>430.0483882737176</v>
+        <v>1003.170365396361</v>
       </c>
       <c r="F11" t="n">
-        <v>66.51211643218342</v>
+        <v>639.6340935548272</v>
       </c>
       <c r="G11" t="n">
-        <v>66.51211643218342</v>
+        <v>272.011276347897</v>
       </c>
       <c r="H11" t="n">
         <v>66.51211643218342</v>
@@ -5039,10 +5041,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329464</v>
@@ -5051,7 +5053,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
@@ -5066,25 +5068,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3104.236671416634</v>
+        <v>3167.077706941466</v>
       </c>
       <c r="U11" t="n">
-        <v>2898.155827638544</v>
+        <v>2960.996863163376</v>
       </c>
       <c r="V11" t="n">
-        <v>2614.542573243047</v>
+        <v>2960.996863163376</v>
       </c>
       <c r="W11" t="n">
-        <v>2309.223550921006</v>
+        <v>2655.677840841335</v>
       </c>
       <c r="X11" t="n">
-        <v>1983.207425607999</v>
+        <v>2655.677840841335</v>
       </c>
       <c r="Y11" t="n">
-        <v>1640.517726580261</v>
+        <v>2312.988141813596</v>
       </c>
     </row>
     <row r="12">
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052945</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254609</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611985</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268786</v>
+        <v>434.8492327268787</v>
       </c>
       <c r="F13" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770416</v>
       </c>
       <c r="G13" t="n">
         <v>215.1557144998337</v>
@@ -5200,10 +5202,10 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328086</v>
       </c>
       <c r="L13" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337114</v>
       </c>
       <c r="M13" t="n">
         <v>1162.360316885667</v>
@@ -5218,13 +5220,13 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
@@ -5242,7 +5244,7 @@
         <v>1067.008027882918</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.6650816874608</v>
+        <v>893.665081687461</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1654.93647038346</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C14" t="n">
-        <v>1333.423586391121</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="D14" t="n">
-        <v>1022.607520732444</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="E14" t="n">
-        <v>684.2689010822733</v>
+        <v>963.0288998140416</v>
       </c>
       <c r="F14" t="n">
-        <v>684.2689010822733</v>
+        <v>599.4926279725073</v>
       </c>
       <c r="G14" t="n">
-        <v>316.646083875343</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912105</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329466</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001391</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060173</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.52802693951</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084341</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416636</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U14" t="n">
-        <v>2898.155827638546</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V14" t="n">
-        <v>2614.542573243049</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W14" t="n">
-        <v>2309.223550921008</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X14" t="n">
-        <v>2309.223550921008</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y14" t="n">
-        <v>1966.533851893269</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="15">
@@ -5331,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
         <v>618.1564155387305</v>
@@ -5343,46 +5345,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927785</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
         <v>2242.828302297192</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.4662498052945</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254609</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611985</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G16" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H16" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>158.1401341315257</v>
@@ -5473,13 +5475,13 @@
         <v>1489.515482921749</v>
       </c>
       <c r="W16" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X16" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.665081687461</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1522.73666965675</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C17" t="n">
-        <v>1201.223785664412</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="D17" t="n">
-        <v>1136.009825130819</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E17" t="n">
-        <v>797.6712054806479</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F17" t="n">
-        <v>434.1349336391137</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218345</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U17" t="n">
-        <v>3119.524977831082</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V17" t="n">
-        <v>2835.911723435585</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W17" t="n">
-        <v>2530.592701113544</v>
+        <v>3026.328773681787</v>
       </c>
       <c r="X17" t="n">
-        <v>2204.576575800537</v>
+        <v>2700.31264836878</v>
       </c>
       <c r="Y17" t="n">
-        <v>1861.886876772799</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="18">
@@ -5583,31 +5585,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C19" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D19" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E19" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268784</v>
       </c>
       <c r="F19" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770414</v>
       </c>
       <c r="G19" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H19" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>158.1401341315257</v>
@@ -5677,46 +5679,46 @@
         <v>408.6327023328087</v>
       </c>
       <c r="L19" t="n">
-        <v>771.6978860337115</v>
+        <v>771.6978860337103</v>
       </c>
       <c r="M19" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N19" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843937</v>
       </c>
       <c r="O19" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P19" t="n">
-        <v>2175.221948702825</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q19" t="n">
-        <v>2299.337630107746</v>
+        <v>2299.337630107745</v>
       </c>
       <c r="R19" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S19" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T19" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U19" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V19" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W19" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X19" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y19" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1301.367519464212</v>
+        <v>1400.715957574904</v>
       </c>
       <c r="C20" t="n">
-        <v>979.854635471874</v>
+        <v>1079.203073582566</v>
       </c>
       <c r="D20" t="n">
-        <v>979.854635471874</v>
+        <v>768.3870079238884</v>
       </c>
       <c r="E20" t="n">
-        <v>684.2689010822733</v>
+        <v>430.0483882737176</v>
       </c>
       <c r="F20" t="n">
-        <v>684.2689010822733</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G20" t="n">
-        <v>316.646083875343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5750,16 +5752,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5795,7 +5797,7 @@
         <v>1983.207425607999</v>
       </c>
       <c r="Y20" t="n">
-        <v>1640.517726580261</v>
+        <v>1739.866164690952</v>
       </c>
     </row>
     <row r="21">
@@ -5805,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5847,10 +5849,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>759.4662498052944</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C22" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D22" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E22" t="n">
-        <v>434.8492327268785</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F22" t="n">
-        <v>335.4089181770415</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G22" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998336</v>
       </c>
       <c r="H22" t="n">
-        <v>116.3881606657648</v>
+        <v>116.3881606657647</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218342</v>
@@ -5911,16 +5913,16 @@
         <v>158.1401341315256</v>
       </c>
       <c r="K22" t="n">
-        <v>408.6327023328085</v>
+        <v>408.6327023328087</v>
       </c>
       <c r="L22" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337115</v>
       </c>
       <c r="M22" t="n">
         <v>1162.360316885667</v>
       </c>
       <c r="N22" t="n">
-        <v>1550.274078843938</v>
+        <v>1550.274078843939</v>
       </c>
       <c r="O22" t="n">
         <v>1896.109063016758</v>
@@ -5932,28 +5934,28 @@
         <v>2299.337630107746</v>
       </c>
       <c r="R22" t="n">
-        <v>2256.956805813347</v>
+        <v>2256.956805813346</v>
       </c>
       <c r="S22" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T22" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U22" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V22" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W22" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X22" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y22" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C23" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D23" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E23" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F23" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G23" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H23" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I23" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J23" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K23" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L23" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M23" t="n">
-        <v>1755.817188486247</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N23" t="n">
-        <v>2302.596005545029</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O23" t="n">
-        <v>2805.568476424366</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P23" t="n">
-        <v>3518.923563871311</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q23" t="n">
-        <v>3977.401766380299</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R23" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S23" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T23" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U23" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V23" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W23" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X23" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y23" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6065,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I24" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J24" t="n">
         <v>174.8241863873064</v>
@@ -6072,22 +6074,22 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L24" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M24" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O24" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P24" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q24" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.688342997847</v>
       </c>
       <c r="R24" t="n">
         <v>2579.543989590362</v>
@@ -6121,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C25" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D25" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4840331913839</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F25" t="n">
-        <v>350.0437186415468</v>
+        <v>350.0437186415471</v>
       </c>
       <c r="G25" t="n">
-        <v>229.7905149643391</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H25" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I25" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J25" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960309</v>
       </c>
       <c r="K25" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973139</v>
       </c>
       <c r="L25" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982166</v>
       </c>
       <c r="M25" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N25" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O25" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P25" t="n">
         <v>2189.856749167329</v>
@@ -6181,7 +6183,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V25" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W25" t="n">
         <v>1262.182746297367</v>
@@ -6190,7 +6192,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y25" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1989.485669189164</v>
+        <v>2037.657969062426</v>
       </c>
       <c r="C26" t="n">
-        <v>1662.520051009284</v>
+        <v>1715.421153601667</v>
       </c>
       <c r="D26" t="n">
-        <v>1346.251251163065</v>
+        <v>1403.881156474569</v>
       </c>
       <c r="E26" t="n">
-        <v>1002.459897325352</v>
+        <v>1064.818605355979</v>
       </c>
       <c r="F26" t="n">
-        <v>633.4708912962756</v>
+        <v>700.5584020460244</v>
       </c>
       <c r="G26" t="n">
-        <v>260.3953399018033</v>
+        <v>332.2116533706743</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.35375445909486</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.35375445909486</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.6385344384732</v>
       </c>
       <c r="K26" t="n">
-        <v>924.7493799910139</v>
+        <v>771.4579081283196</v>
       </c>
       <c r="L26" t="n">
-        <v>1375.783593239423</v>
+        <v>1222.492121376728</v>
       </c>
       <c r="M26" t="n">
-        <v>1909.315497911347</v>
+        <v>1756.024026048653</v>
       </c>
       <c r="N26" t="n">
-        <v>2456.094314970129</v>
+        <v>2302.802843107434</v>
       </c>
       <c r="O26" t="n">
-        <v>2959.066785849466</v>
+        <v>2805.775313986771</v>
       </c>
       <c r="P26" t="n">
-        <v>3672.421873296411</v>
+        <v>3519.130401433717</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277656</v>
+        <v>3943.611400723688</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4067.687722954743</v>
       </c>
       <c r="S26" t="n">
-        <v>3989.052075122085</v>
+        <v>4004.122755961492</v>
       </c>
       <c r="T26" t="n">
-        <v>3825.071226266838</v>
+        <v>3844.870709825367</v>
       </c>
       <c r="U26" t="n">
-        <v>3613.537648301206</v>
+        <v>3638.065934578857</v>
       </c>
       <c r="V26" t="n">
-        <v>3324.471659718167</v>
+        <v>3353.72874871494</v>
       </c>
       <c r="W26" t="n">
-        <v>3013.699903208584</v>
+        <v>3047.685794924479</v>
       </c>
       <c r="X26" t="n">
-        <v>2682.231043708035</v>
+        <v>2720.945738143052</v>
       </c>
       <c r="Y26" t="n">
-        <v>2334.088610492755</v>
+        <v>2377.532107646894</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456135</v>
+        <v>956.3854925080201</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644865</v>
+        <v>781.9324632268931</v>
       </c>
       <c r="D27" t="n">
-        <v>632.7912160032353</v>
+        <v>632.9980535656418</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977798</v>
+        <v>473.7605985601864</v>
       </c>
       <c r="F27" t="n">
-        <v>327.0192030246648</v>
+        <v>327.2260405870713</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572829</v>
+        <v>190.8629404196894</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951504</v>
+        <v>100.3610460575569</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.35375445909486</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873064</v>
+        <v>175.0310239497121</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.2952229300593</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.9933832427246</v>
       </c>
       <c r="M27" t="n">
-        <v>1227.062870902635</v>
+        <v>1227.26970846504</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.792752019495</v>
       </c>
       <c r="O27" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.75403143755</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.253622913652</v>
       </c>
       <c r="Q27" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.895180560253</v>
       </c>
       <c r="R27" t="n">
-        <v>2579.543989590361</v>
+        <v>2579.750827152768</v>
       </c>
       <c r="S27" t="n">
-        <v>2450.106103083841</v>
+        <v>2450.312940646248</v>
       </c>
       <c r="T27" t="n">
-        <v>2257.463102761697</v>
+        <v>2257.669940324104</v>
       </c>
       <c r="U27" t="n">
-        <v>2029.395255896113</v>
+        <v>2029.602093458519</v>
       </c>
       <c r="V27" t="n">
-        <v>1794.24314766437</v>
+        <v>1794.449985226776</v>
       </c>
       <c r="W27" t="n">
-        <v>1540.005790936168</v>
+        <v>1540.212628498575</v>
       </c>
       <c r="X27" t="n">
-        <v>1332.154290730635</v>
+        <v>1332.361128293042</v>
       </c>
       <c r="Y27" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.600829528088</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>682.2726443642424</v>
+        <v>762.1163027588398</v>
       </c>
       <c r="C28" t="n">
-        <v>555.3333601968668</v>
+        <v>639.9058213105862</v>
       </c>
       <c r="D28" t="n">
-        <v>447.2136195450624</v>
+        <v>553.7739887302095</v>
       </c>
       <c r="E28" t="n">
-        <v>341.2974247232005</v>
+        <v>452.5865966274697</v>
       </c>
       <c r="F28" t="n">
-        <v>236.4043759858215</v>
+        <v>352.4223506092127</v>
       </c>
       <c r="G28" t="n">
-        <v>110.6984381210717</v>
+        <v>231.445215463585</v>
       </c>
       <c r="H28" t="n">
-        <v>81.14691689668918</v>
+        <v>131.9537301610962</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.35375445909486</v>
       </c>
       <c r="J28" t="n">
-        <v>167.4307098188214</v>
+        <v>172.2722469262387</v>
       </c>
       <c r="K28" t="n">
-        <v>412.5790532428945</v>
+        <v>422.0552898953233</v>
       </c>
       <c r="L28" t="n">
-        <v>770.3000121665873</v>
+        <v>784.4109483640276</v>
       </c>
       <c r="M28" t="n">
-        <v>1155.618218241333</v>
+        <v>1174.363853983785</v>
       </c>
       <c r="N28" t="n">
-        <v>1538.187755422394</v>
+        <v>1561.568090709858</v>
       </c>
       <c r="O28" t="n">
-        <v>1878.678514818004</v>
+        <v>1906.693549650479</v>
       </c>
       <c r="P28" t="n">
-        <v>2152.44717572686</v>
+        <v>2185.096910104347</v>
       </c>
       <c r="Q28" t="n">
-        <v>2271.218632354572</v>
+        <v>2308.50306627707</v>
       </c>
       <c r="R28" t="n">
-        <v>2223.385073872631</v>
+        <v>2265.398310514252</v>
       </c>
       <c r="S28" t="n">
-        <v>2073.696088459988</v>
+        <v>2120.438127820731</v>
       </c>
       <c r="T28" t="n">
-        <v>1893.926371790046</v>
+        <v>1945.397213869911</v>
       </c>
       <c r="U28" t="n">
-        <v>1646.820403676221</v>
+        <v>1703.020048475207</v>
       </c>
       <c r="V28" t="n">
-        <v>1434.132814230865</v>
+        <v>1495.061261748974</v>
       </c>
       <c r="W28" t="n">
-        <v>1186.712542954436</v>
+        <v>1252.369793191667</v>
       </c>
       <c r="X28" t="n">
-        <v>1000.71989081695</v>
+        <v>1071.105943773303</v>
       </c>
       <c r="Y28" t="n">
-        <v>821.9242104339509</v>
+        <v>897.0390661094261</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2037.657969062425</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1715.421153601667</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1403.88115647457</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1064.818605355979</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467794</v>
+        <v>700.5584020460246</v>
       </c>
       <c r="G29" t="n">
-        <v>331.2808843398487</v>
+        <v>332.2116533706743</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.35375445909486</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.35375445909486</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.6385344384732</v>
       </c>
       <c r="K29" t="n">
-        <v>924.7493799910139</v>
+        <v>771.4579081283196</v>
       </c>
       <c r="L29" t="n">
-        <v>1375.783593239423</v>
+        <v>1222.492121376728</v>
       </c>
       <c r="M29" t="n">
-        <v>1909.315497911347</v>
+        <v>1756.024026048653</v>
       </c>
       <c r="N29" t="n">
-        <v>2456.094314970129</v>
+        <v>2302.802843107434</v>
       </c>
       <c r="O29" t="n">
-        <v>2959.066785849466</v>
+        <v>3047.029207195313</v>
       </c>
       <c r="P29" t="n">
-        <v>3672.421873296411</v>
+        <v>3760.384294642258</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>4008.670656397941</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4067.687722954743</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>4004.122755961492</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3844.870709825367</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863832</v>
+        <v>3638.065934578856</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3353.728748714939</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3047.685794924478</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2720.945738143052</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2377.532107646894</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.3854925080201</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.9324632268931</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032361</v>
+        <v>632.9980535656418</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.7605985601864</v>
       </c>
       <c r="F30" t="n">
-        <v>327.0192030246656</v>
+        <v>327.2260405870713</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572837</v>
+        <v>190.8629404196894</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951512</v>
+        <v>100.3610460575569</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.35375445909486</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873064</v>
+        <v>175.0310239497121</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676535</v>
+        <v>413.29522293006</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803188</v>
+        <v>779.9933832427253</v>
       </c>
       <c r="M30" t="n">
-        <v>1227.062870902635</v>
+        <v>1227.269708465041</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.792752019496</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.547193875144</v>
+        <v>2111.75403143755</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.253622913653</v>
       </c>
       <c r="Q30" t="n">
-        <v>2579.688342997846</v>
+        <v>2579.895180560253</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.750827152768</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.312940646248</v>
       </c>
       <c r="T30" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.669940324104</v>
       </c>
       <c r="U30" t="n">
-        <v>2029.395255896113</v>
+        <v>2029.602093458519</v>
       </c>
       <c r="V30" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.449985226776</v>
       </c>
       <c r="W30" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.212628498575</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.361128293042</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965682</v>
+        <v>1124.600829528088</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502697999</v>
+        <v>762.1163027588398</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899663</v>
+        <v>639.9058213105862</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257039</v>
+        <v>536.5148833779039</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>452.5865966274697</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>352.4223506092127</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>231.445215463585</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302705</v>
+        <v>131.9537301610962</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.35375445909486</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.2722469262387</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>422.0552898953233</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>784.4109483640276</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1174.363853983785</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308444</v>
+        <v>1561.568090709858</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481264</v>
+        <v>1906.693549650479</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.85674916733</v>
+        <v>2185.096910104347</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2308.50306627707</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2265.398310514252</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2120.438127820731</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1945.397213869911</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1703.020048475207</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1495.061261748974</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297367</v>
+        <v>1252.369793191667</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1071.105943773303</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519662</v>
+        <v>897.0390661094261</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486247</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.596005545029</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O32" t="n">
-        <v>2826.495488321722</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P32" t="n">
-        <v>3539.850575768668</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6776,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873064</v>
@@ -6783,22 +6785,22 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
         <v>2579.543989590362</v>
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899671</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257047</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913849</v>
+        <v>449.4840331913841</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415471</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
         <v>786.3326864982171</v>
@@ -6889,19 +6891,19 @@
         <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X34" t="n">
-        <v>1081.642828347424</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.299882151967</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1430.000155131663</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C35" t="n">
-        <v>1108.487271139325</v>
+        <v>979.854635471874</v>
       </c>
       <c r="D35" t="n">
-        <v>797.6712054806478</v>
+        <v>979.854635471874</v>
       </c>
       <c r="E35" t="n">
-        <v>797.6712054806478</v>
+        <v>979.854635471874</v>
       </c>
       <c r="F35" t="n">
-        <v>434.1349336391136</v>
+        <v>616.3183636303397</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218342</v>
+        <v>248.6955464234096</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6935,10 +6937,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6953,7 +6955,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6962,25 +6964,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084339</v>
       </c>
       <c r="T35" t="n">
-        <v>3232.869307084085</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U35" t="n">
-        <v>3026.788463305995</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V35" t="n">
-        <v>2743.175208910498</v>
+        <v>2614.542573243047</v>
       </c>
       <c r="W35" t="n">
-        <v>2437.856186588457</v>
+        <v>2309.223550921006</v>
       </c>
       <c r="X35" t="n">
-        <v>2111.84006127545</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y35" t="n">
-        <v>1769.150362247712</v>
+        <v>1640.517726580261</v>
       </c>
     </row>
     <row r="36">
@@ -7020,22 +7022,22 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R36" t="n">
         <v>2564.909189125856</v>
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1301.367519464211</v>
+        <v>2018.472742224994</v>
       </c>
       <c r="C38" t="n">
-        <v>979.8546354718721</v>
+        <v>1696.959858232655</v>
       </c>
       <c r="D38" t="n">
-        <v>669.038569813195</v>
+        <v>1386.143792573978</v>
       </c>
       <c r="E38" t="n">
-        <v>330.6999501630241</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218338</v>
+        <v>684.268901082273</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218338</v>
+        <v>316.6460838753429</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912077</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810541</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001387</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060169</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3262.764786084337</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3104.236671416632</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U38" t="n">
-        <v>2898.155827638542</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V38" t="n">
-        <v>2614.542573243045</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W38" t="n">
-        <v>2309.223550921004</v>
+        <v>3020.28679928713</v>
       </c>
       <c r="X38" t="n">
-        <v>1983.207425607997</v>
+        <v>2700.31264836878</v>
       </c>
       <c r="Y38" t="n">
-        <v>1640.517726580259</v>
+        <v>2357.622949341042</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7247,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
         <v>160.1893859228007</v>
@@ -7257,22 +7259,22 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q39" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R39" t="n">
         <v>2564.909189125856</v>
@@ -7306,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>759.4662498052942</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C40" t="n">
-        <v>637.9796998254606</v>
+        <v>637.9796998254603</v>
       </c>
       <c r="D40" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E40" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268782</v>
       </c>
       <c r="F40" t="n">
-        <v>335.4089181770414</v>
+        <v>335.4089181770412</v>
       </c>
       <c r="G40" t="n">
-        <v>215.1557144998337</v>
+        <v>215.1557144998335</v>
       </c>
       <c r="H40" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>158.1401341315254</v>
+        <v>158.1401341315256</v>
       </c>
       <c r="K40" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L40" t="n">
-        <v>771.6978860337111</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M40" t="n">
         <v>1162.360316885667</v>
@@ -7357,25 +7359,25 @@
         <v>2256.956805813346</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.720554588247</v>
+        <v>2112.720554588246</v>
       </c>
       <c r="T40" t="n">
         <v>1938.403572105846</v>
       </c>
       <c r="U40" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V40" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W40" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X40" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y40" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2191.759093870781</v>
+        <v>1510.707408759878</v>
       </c>
       <c r="C41" t="n">
-        <v>1828.249311117911</v>
+        <v>1142.468823287886</v>
       </c>
       <c r="D41" t="n">
-        <v>1475.436346698703</v>
+        <v>784.9270561495559</v>
       </c>
       <c r="E41" t="n">
-        <v>1095.100828288001</v>
+        <v>399.8627350197316</v>
       </c>
       <c r="F41" t="n">
-        <v>689.5676576859352</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G41" t="n">
-        <v>279.9479417184737</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218338</v>
@@ -7412,10 +7414,10 @@
         <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001388</v>
@@ -7436,25 +7438,25 @@
         <v>3325.605821609169</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609169</v>
+        <v>3216.039084604684</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609169</v>
+        <v>3010.785268457326</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609169</v>
+        <v>3010.785268457326</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609169</v>
+        <v>3010.785268457326</v>
       </c>
       <c r="W41" t="n">
-        <v>3325.605821609169</v>
+        <v>2658.740544655632</v>
       </c>
       <c r="X41" t="n">
-        <v>2957.592797535631</v>
+        <v>2285.998717862972</v>
       </c>
       <c r="Y41" t="n">
-        <v>2572.906199747361</v>
+        <v>1896.58331735558</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66.51211643218338</v>
+        <v>794.9760269489573</v>
       </c>
       <c r="C43" t="n">
-        <v>66.51211643218338</v>
+        <v>626.7637754894704</v>
       </c>
       <c r="D43" t="n">
-        <v>66.51211643218338</v>
+        <v>526.1734390167398</v>
       </c>
       <c r="E43" t="n">
-        <v>66.51211643218338</v>
+        <v>378.9842769027667</v>
       </c>
       <c r="F43" t="n">
-        <v>66.51211643218338</v>
+        <v>378.9842769027667</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218338</v>
+        <v>212.0053717459056</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218338</v>
@@ -7567,52 +7569,52 @@
         <v>66.51211643218338</v>
       </c>
       <c r="J43" t="n">
-        <v>116.9789736563288</v>
+        <v>112.3442741113173</v>
       </c>
       <c r="K43" t="n">
-        <v>326.3103813824151</v>
+        <v>317.040982292392</v>
       </c>
       <c r="L43" t="n">
-        <v>648.2144046081211</v>
+        <v>634.3103059730864</v>
       </c>
       <c r="M43" t="n">
-        <v>997.7156749848799</v>
+        <v>979.1768768048337</v>
       </c>
       <c r="N43" t="n">
-        <v>1344.468276467954</v>
+        <v>1321.294778742897</v>
       </c>
       <c r="O43" t="n">
-        <v>1649.142100165578</v>
+        <v>1621.333902895508</v>
       </c>
       <c r="P43" t="n">
-        <v>1887.093825376447</v>
+        <v>1854.650928561366</v>
       </c>
       <c r="Q43" t="n">
-        <v>1970.048346306171</v>
+        <v>1932.970749946079</v>
       </c>
       <c r="R43" t="n">
-        <v>1885.670623251241</v>
+        <v>1932.970749946079</v>
       </c>
       <c r="S43" t="n">
-        <v>1699.43747326561</v>
+        <v>1932.970749946079</v>
       </c>
       <c r="T43" t="n">
-        <v>1483.123592022678</v>
+        <v>1711.928065984025</v>
       </c>
       <c r="U43" t="n">
-        <v>1199.473459335863</v>
+        <v>1711.928065984025</v>
       </c>
       <c r="V43" t="n">
-        <v>950.2417053175184</v>
+        <v>1711.928065984025</v>
       </c>
       <c r="W43" t="n">
-        <v>666.2772694680998</v>
+        <v>1423.234827415484</v>
       </c>
       <c r="X43" t="n">
-        <v>443.7404527576245</v>
+        <v>1195.969207985887</v>
       </c>
       <c r="Y43" t="n">
-        <v>228.4006078016364</v>
+        <v>975.900560310777</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2005.586939522201</v>
+        <v>1300.303734419644</v>
       </c>
       <c r="C44" t="n">
-        <v>1636.624422581789</v>
+        <v>1187.982277362767</v>
       </c>
       <c r="D44" t="n">
-        <v>1278.358723975039</v>
+        <v>1187.982277362767</v>
       </c>
       <c r="E44" t="n">
-        <v>892.5704713767946</v>
+        <v>1187.982277362767</v>
       </c>
       <c r="F44" t="n">
-        <v>481.5845665871869</v>
+        <v>777.7203040415798</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218338</v>
+        <v>363.3717853549963</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218338</v>
@@ -7664,7 +7666,7 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052366</v>
@@ -7673,25 +7675,25 @@
         <v>3325.605821609169</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609169</v>
+        <v>3216.039084604684</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609169</v>
+        <v>3010.785268457326</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609169</v>
+        <v>2757.978723199582</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.605821609169</v>
+        <v>2427.639767324432</v>
       </c>
       <c r="W44" t="n">
-        <v>3155.791869823214</v>
+        <v>2075.595043522738</v>
       </c>
       <c r="X44" t="n">
-        <v>2782.326111562134</v>
+        <v>2075.595043522738</v>
       </c>
       <c r="Y44" t="n">
-        <v>2392.186779586323</v>
+        <v>1686.179643015346</v>
       </c>
     </row>
     <row r="45">
@@ -7746,7 +7748,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>249.7936412903415</v>
+        <v>380.7582091181649</v>
       </c>
       <c r="C46" t="n">
-        <v>249.7936412903415</v>
+        <v>212.545957658678</v>
       </c>
       <c r="D46" t="n">
-        <v>99.6770018780058</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="E46" t="n">
-        <v>99.6770018780058</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="F46" t="n">
-        <v>99.6770018780058</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="G46" t="n">
-        <v>99.6770018780058</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H46" t="n">
-        <v>99.6770018780058</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218338</v>
       </c>
       <c r="J46" t="n">
-        <v>111.6347488791189</v>
+        <v>112.3442741113173</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279952</v>
+        <v>317.040982292392</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764912</v>
+        <v>634.3103059730864</v>
       </c>
       <c r="M46" t="n">
-        <v>976.33877587604</v>
+        <v>979.1768768048337</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1321.294778742897</v>
       </c>
       <c r="O46" t="n">
-        <v>1617.076751502318</v>
+        <v>1621.333902895508</v>
       </c>
       <c r="P46" t="n">
-        <v>1849.684251935977</v>
+        <v>1854.650928561366</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088492</v>
+        <v>1932.970749946079</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.46409084602</v>
+        <v>1843.864224172027</v>
       </c>
       <c r="S46" t="n">
-        <v>1645.778206672846</v>
+        <v>1652.902271467273</v>
       </c>
       <c r="T46" t="n">
-        <v>1424.011591242372</v>
+        <v>1431.859587505219</v>
       </c>
       <c r="U46" t="n">
-        <v>1134.908724368016</v>
+        <v>1143.480652099283</v>
       </c>
       <c r="V46" t="n">
-        <v>880.2242361621287</v>
+        <v>889.5200953618157</v>
       </c>
       <c r="W46" t="n">
-        <v>880.2242361621287</v>
+        <v>600.8268567932751</v>
       </c>
       <c r="X46" t="n">
-        <v>652.2346852641114</v>
+        <v>600.8268567932751</v>
       </c>
       <c r="Y46" t="n">
-        <v>431.4421061205812</v>
+        <v>380.7582091181649</v>
       </c>
     </row>
   </sheetData>
@@ -8216,25 +8218,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>204.9488929688199</v>
+        <v>208.3214547517356</v>
       </c>
       <c r="L5" t="n">
-        <v>216.9827176214128</v>
+        <v>221.1666787354324</v>
       </c>
       <c r="M5" t="n">
-        <v>209.4457506959743</v>
+        <v>214.1012135983212</v>
       </c>
       <c r="N5" t="n">
-        <v>208.1743894071544</v>
+        <v>212.9051825663978</v>
       </c>
       <c r="O5" t="n">
-        <v>210.0431336424961</v>
+        <v>214.5102874732696</v>
       </c>
       <c r="P5" t="n">
-        <v>214.1164508613533</v>
+        <v>217.9290633046618</v>
       </c>
       <c r="Q5" t="n">
-        <v>209.4518774951211</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,28 +8294,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>120.8206749401526</v>
+        <v>122.1609165114202</v>
       </c>
       <c r="K6" t="n">
-        <v>127.5575101077758</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L6" t="n">
-        <v>124.7263683031052</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M6" t="n">
-        <v>125.997396753794</v>
+        <v>129.5917403577182</v>
       </c>
       <c r="N6" t="n">
-        <v>114.7779861453286</v>
+        <v>118.4674613291454</v>
       </c>
       <c r="O6" t="n">
-        <v>127.4436711976959</v>
+        <v>130.8188201934042</v>
       </c>
       <c r="P6" t="n">
-        <v>121.8131315093597</v>
+        <v>124.5219861368073</v>
       </c>
       <c r="Q6" t="n">
-        <v>131.8522832059107</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,19 +8379,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>126.9466836733532</v>
+        <v>128.7148261097669</v>
       </c>
       <c r="M7" t="n">
-        <v>130.5562837312811</v>
+        <v>132.4205420186164</v>
       </c>
       <c r="N7" t="n">
-        <v>119.5150522573006</v>
+        <v>121.3349826493852</v>
       </c>
       <c r="O7" t="n">
-        <v>130.909766465332</v>
+        <v>132.590766746692</v>
       </c>
       <c r="P7" t="n">
-        <v>131.27043686954</v>
+        <v>132.7088230120157</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>100.9387195582597</v>
+        <v>101.9472743170036</v>
       </c>
       <c r="K8" t="n">
-        <v>100.0299464227919</v>
+        <v>97.66655995355663</v>
       </c>
       <c r="L8" t="n">
-        <v>86.82148686318189</v>
+        <v>83.8894969631684</v>
       </c>
       <c r="M8" t="n">
-        <v>64.61630209323866</v>
+        <v>63.9393679255723</v>
       </c>
       <c r="N8" t="n">
-        <v>61.00144891149961</v>
+        <v>57.68625611119447</v>
       </c>
       <c r="O8" t="n">
-        <v>71.07189926570237</v>
+        <v>70.42246282688915</v>
       </c>
       <c r="P8" t="n">
-        <v>95.50771753390021</v>
+        <v>92.83595723981207</v>
       </c>
       <c r="Q8" t="n">
-        <v>120.3816583481039</v>
+        <v>120.9607471655027</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8531,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>79.12633608862856</v>
+        <v>80.77260598384491</v>
       </c>
       <c r="K9" t="n">
-        <v>56.29524403393702</v>
+        <v>54.69000226445294</v>
       </c>
       <c r="L9" t="n">
-        <v>28.90545725697471</v>
+        <v>29.22801771347986</v>
       </c>
       <c r="M9" t="n">
-        <v>14.17891314335149</v>
+        <v>11.66010886752525</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>22.44423757443683</v>
+        <v>20.07903806689403</v>
       </c>
       <c r="P9" t="n">
-        <v>37.54182911310821</v>
+        <v>38.2290175187045</v>
       </c>
       <c r="Q9" t="n">
-        <v>75.5191492782957</v>
+        <v>74.25019861802831</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8611,22 +8613,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>79.82491575659759</v>
+        <v>78.8566402671989</v>
       </c>
       <c r="L10" t="n">
-        <v>71.94053294496764</v>
+        <v>73.28694321419187</v>
       </c>
       <c r="M10" t="n">
-        <v>72.56001021962936</v>
+        <v>73.83906548806522</v>
       </c>
       <c r="N10" t="n">
-        <v>62.89780050171086</v>
+        <v>64.10345596595252</v>
       </c>
       <c r="O10" t="n">
-        <v>78.61457070130248</v>
+        <v>77.43657795410601</v>
       </c>
       <c r="P10" t="n">
-        <v>86.52286261917671</v>
+        <v>88.10035584948591</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9647,19 +9649,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>21.74982042514796</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>21.13839585591558</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9893,10 +9895,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>78.40458911672974</v>
+        <v>177.9743813477664</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10111,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,13 +10126,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>243.6908012207489</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>78.40458911672974</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10358,19 +10360,19 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>21.13839585591609</v>
+        <v>221.2853655744092</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -11160,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -22559,7 +22561,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>15.28796821707175</v>
+        <v>15.28796821707176</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22796,7 +22798,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>15.18370833497204</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23030,10 +23032,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>4.290576211640087</v>
       </c>
       <c r="G8" t="n">
-        <v>14.35889816588482</v>
+        <v>11.75484910125388</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>98.35495372958499</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23270,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348609</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>44.18845945217146</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23315,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27.27729735017658</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>83.92851037866808</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598765</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23735,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>243.1460840738333</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23786,13 +23788,13 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>5.981554650710223</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23972,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>307.7079050020904</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>42.32535640796453</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>359.9009091231189</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24035,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>98.35495372958468</v>
       </c>
     </row>
     <row r="21">
@@ -24458,7 +24460,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>75.57489583933153</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>17.08651429878252</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>73.92207912925606</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>54.77549063691213</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24844,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>17.08651429878255</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -25157,7 +25159,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E35" t="n">
         <v>334.9552334536692</v>
@@ -25169,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>247.6326277687279</v>
+        <v>67.27103207741399</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25202,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>65.13368414119287</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25400,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>98.35495372958655</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,22 +25441,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>5.981554650710393</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25637,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>76.14224118630284</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.2050334997177</v>
       </c>
       <c r="H41" t="n">
-        <v>77.90809050822654</v>
+        <v>293.8910722335847</v>
       </c>
       <c r="I41" t="n">
-        <v>36.1787229272594</v>
+        <v>40.86023761919023</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.7895549425093</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>198.5197632939536</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>245.5969651132354</v>
+        <v>250.2784798051662</v>
       </c>
       <c r="V41" t="n">
-        <v>322.3540516244683</v>
+        <v>327.0355663163991</v>
       </c>
       <c r="W41" t="n">
-        <v>343.8427618717464</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>14.16416688051217</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>161.8486142529612</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>143.2172661725457</v>
+        <v>48.31434775647335</v>
       </c>
       <c r="E43" t="n">
-        <v>141.0357558009026</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>140.0228411772646</v>
+        <v>144.7043558691955</v>
       </c>
       <c r="G43" t="n">
-        <v>160.6276014133616</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>139.3568080686542</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>90.95421356417151</v>
+        <v>95.63572825610234</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.21546051631159</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.0523331777061</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>285.4951460518771</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>251.4209511700922</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25865,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>253.3579571309637</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>353.9663494669472</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.213677918526</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292601</v>
+        <v>40.86023761919023</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>181.1251564493181</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.0144085247333</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.1152880282015</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>3.325278050246908</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>145.7172704928334</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>144.7043558691955</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>165.3091161052924</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>144.038322760585</v>
       </c>
       <c r="I46" t="n">
-        <v>63.51918381847392</v>
+        <v>95.63572825610234</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26083,10 +26085,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>224.9929632353014</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>797187.087910095</v>
+        <v>798533.0257316893</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>752886.9727988443</v>
+        <v>752842.2979221042</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>678723.7370938099</v>
+        <v>678723.7370938098</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>743267.4745330686</v>
+        <v>751201.0574772983</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>751233.9149933677</v>
+        <v>751201.0574772983</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>678723.7370938096</v>
+        <v>678723.7370938098</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>614846.452206408</v>
+        <v>607611.6075671982</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>606504.0266393083</v>
+        <v>607611.6075671983</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>716867.8250590187</v>
+        <v>716867.8250590186</v>
       </c>
       <c r="C2" t="n">
-        <v>716875.086759807</v>
+        <v>716873.240124561</v>
       </c>
       <c r="D2" t="n">
-        <v>716932.5347880843</v>
+        <v>717293.9847582054</v>
       </c>
       <c r="E2" t="n">
-        <v>668964.6336536114</v>
+        <v>668964.6336536132</v>
       </c>
       <c r="F2" t="n">
-        <v>668964.6336536132</v>
+        <v>668964.6336536115</v>
       </c>
       <c r="G2" t="n">
-        <v>668964.6336536115</v>
+        <v>668964.6336536126</v>
       </c>
       <c r="H2" t="n">
         <v>668964.6336536129</v>
       </c>
       <c r="I2" t="n">
+        <v>718411.5486312479</v>
+      </c>
+      <c r="J2" t="n">
+        <v>718052.7318309727</v>
+      </c>
+      <c r="K2" t="n">
+        <v>718052.7318309726</v>
+      </c>
+      <c r="L2" t="n">
         <v>718411.5486312481</v>
       </c>
-      <c r="J2" t="n">
-        <v>710445.1081709496</v>
-      </c>
-      <c r="K2" t="n">
-        <v>718411.5486312467</v>
-      </c>
-      <c r="L2" t="n">
-        <v>718411.5486312469</v>
-      </c>
       <c r="M2" t="n">
-        <v>668964.6336536129</v>
+        <v>668964.6336536128</v>
       </c>
       <c r="N2" t="n">
-        <v>668964.6336536127</v>
+        <v>668964.633653613</v>
       </c>
       <c r="O2" t="n">
-        <v>605087.3487662117</v>
+        <v>597852.5041270008</v>
       </c>
       <c r="P2" t="n">
-        <v>596744.923199111</v>
+        <v>597852.5041270009</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3540.182044145884</v>
+        <v>3540.182044145911</v>
       </c>
       <c r="C3" t="n">
-        <v>23616.14021849392</v>
+        <v>17610.60540304349</v>
       </c>
       <c r="D3" t="n">
-        <v>175711.770316979</v>
+        <v>186121.1065121299</v>
       </c>
       <c r="E3" t="n">
-        <v>972725.1766621991</v>
+        <v>968240.1574571584</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48646.25967902292</v>
+        <v>48646.25967902289</v>
       </c>
       <c r="J3" t="n">
-        <v>33261.54381834078</v>
+        <v>37683.22816161143</v>
       </c>
       <c r="K3" t="n">
-        <v>4318.565476533291</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>573.3537229886224</v>
       </c>
       <c r="M3" t="n">
-        <v>161600.4331051143</v>
+        <v>160956.1237563425</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>429908.1492159134</v>
+        <v>429908.1492159133</v>
       </c>
       <c r="C4" t="n">
-        <v>423009.3587279729</v>
+        <v>424732.6838236327</v>
       </c>
       <c r="D4" t="n">
-        <v>370434.2549872374</v>
+        <v>369250.9170066197</v>
       </c>
       <c r="E4" t="n">
-        <v>57605.61344858622</v>
+        <v>57605.61344858625</v>
       </c>
       <c r="F4" t="n">
-        <v>57605.61344858622</v>
+        <v>57605.61344858626</v>
       </c>
       <c r="G4" t="n">
-        <v>57605.61344858622</v>
+        <v>57605.61344858624</v>
       </c>
       <c r="H4" t="n">
-        <v>57605.61344858624</v>
+        <v>57605.61344858626</v>
       </c>
       <c r="I4" t="n">
+        <v>80755.36360646598</v>
+      </c>
+      <c r="J4" t="n">
+        <v>80390.85656383955</v>
+      </c>
+      <c r="K4" t="n">
+        <v>80390.85656383957</v>
+      </c>
+      <c r="L4" t="n">
         <v>80755.36360646601</v>
       </c>
-      <c r="J4" t="n">
-        <v>75545.48581390422</v>
-      </c>
-      <c r="K4" t="n">
-        <v>80755.36360646605</v>
-      </c>
-      <c r="L4" t="n">
-        <v>80755.36360646604</v>
-      </c>
       <c r="M4" t="n">
-        <v>57605.61344858627</v>
+        <v>57605.61344858626</v>
       </c>
       <c r="N4" t="n">
-        <v>57605.61344858625</v>
+        <v>57605.61344858626</v>
       </c>
       <c r="O4" t="n">
-        <v>15835.48191094085</v>
+        <v>11104.59725831074</v>
       </c>
       <c r="P4" t="n">
-        <v>10380.34706710381</v>
+        <v>11104.59725831071</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26472,19 @@
         <v>33707.69021107268</v>
       </c>
       <c r="C5" t="n">
-        <v>34273.06548672897</v>
+        <v>34129.29174257201</v>
       </c>
       <c r="D5" t="n">
-        <v>38745.80483114667</v>
+        <v>39003.75354960806</v>
       </c>
       <c r="E5" t="n">
+        <v>78255.49332178175</v>
+      </c>
+      <c r="F5" t="n">
         <v>78255.49332178176</v>
       </c>
-      <c r="F5" t="n">
-        <v>78255.49332178177</v>
-      </c>
       <c r="G5" t="n">
-        <v>78255.49332178179</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="H5" t="n">
         <v>78255.49332178176</v>
@@ -26491,25 +26493,25 @@
         <v>89377.94167480612</v>
       </c>
       <c r="J5" t="n">
-        <v>88924.11982349779</v>
+        <v>89474.88662956204</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480613</v>
+        <v>89474.88662956204</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>78255.49332178176</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="N5" t="n">
-        <v>78255.49332178173</v>
+        <v>78255.49332178175</v>
       </c>
       <c r="O5" t="n">
-        <v>74760.1624127016</v>
+        <v>74366.59215406567</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139326</v>
+        <v>74366.59215406567</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>249711.8035878867</v>
       </c>
       <c r="C6" t="n">
-        <v>235976.5223266112</v>
+        <v>240400.6591553129</v>
       </c>
       <c r="D6" t="n">
-        <v>132040.7046527213</v>
+        <v>122918.2076898477</v>
       </c>
       <c r="E6" t="n">
-        <v>-439621.6497789556</v>
+        <v>-435136.6305739133</v>
       </c>
       <c r="F6" t="n">
-        <v>533103.5268832452</v>
+        <v>533103.5268832434</v>
       </c>
       <c r="G6" t="n">
-        <v>533103.5268832436</v>
+        <v>533103.5268832446</v>
       </c>
       <c r="H6" t="n">
-        <v>533103.5268832454</v>
+        <v>533103.526883245</v>
       </c>
       <c r="I6" t="n">
-        <v>499631.983670953</v>
+        <v>499631.9836709529</v>
       </c>
       <c r="J6" t="n">
-        <v>512713.9587152069</v>
+        <v>510503.7604759596</v>
       </c>
       <c r="K6" t="n">
-        <v>543959.6778734413</v>
+        <v>548186.988637571</v>
       </c>
       <c r="L6" t="n">
-        <v>548278.2433499747</v>
+        <v>547704.8896269873</v>
       </c>
       <c r="M6" t="n">
-        <v>371503.0937781307</v>
+        <v>372147.4031269024</v>
       </c>
       <c r="N6" t="n">
-        <v>533103.5268832447</v>
+        <v>533103.526883245</v>
       </c>
       <c r="O6" t="n">
-        <v>514491.7044425692</v>
+        <v>512381.3147146244</v>
       </c>
       <c r="P6" t="n">
-        <v>512058.2355706139</v>
+        <v>512381.3147146245</v>
       </c>
     </row>
   </sheetData>
@@ -26692,28 +26694,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="K2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M2" t="n">
         <v>46.97513661859259</v>
@@ -26722,10 +26724,10 @@
         <v>46.97513661859259</v>
       </c>
       <c r="O2" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26740,10 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>29.60850856554912</v>
+        <v>23.01338268678932</v>
       </c>
       <c r="D3" t="n">
-        <v>234.7800381259942</v>
+        <v>239.4016973476938</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26750,7 +26752,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
         <v>1089.776700593298</v>
@@ -26793,37 +26795,37 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1016.921930738686</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1016.921930738686</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022922</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="K2" t="n">
-        <v>5.398206845666614</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.716692153735778</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,16 +26962,16 @@
         <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>25.9346456723068</v>
+        <v>19.339519793547</v>
       </c>
       <c r="D3" t="n">
-        <v>205.1715295604451</v>
+        <v>216.3883146609044</v>
       </c>
       <c r="E3" t="n">
-        <v>854.9966624673038</v>
+        <v>850.3750032456044</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>828.8159858722213</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>182.9350058063219</v>
+        <v>182.9350058063218</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959706</v>
+        <v>645.8809800658997</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27168,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="P2" t="n">
-        <v>5.398206845666614</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>828.8159858722213</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27631,13 +27633,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>338.2557945244227</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>205.8870171021714</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J5" t="n">
-        <v>1.846836474752116</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>142.3921512027349</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S5" t="n">
-        <v>206.3076921432807</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>222.5747993279678</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3361305734234</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27707,13 +27709,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.2798309372395</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>111.6203693698801</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>87.20392726424942</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,16 +27742,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>96.2037016313798</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S6" t="n">
-        <v>170.5002273889784</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9080285120693</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9371921976872</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -27786,19 +27788,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9375869659635</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>161.7524655996181</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>153.8448200693101</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>89.58433796725842</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K7" t="n">
-        <v>16.06626658870715</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,19 +27818,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>81.69115845829647</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R7" t="n">
-        <v>174.8926752564284</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
-        <v>223.0861142513959</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
-        <v>227.7174582967109</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.316117044173</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27868,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>329.8087073802583</v>
+        <v>329.6184297219498</v>
       </c>
       <c r="I8" t="n">
-        <v>174.0885230584365</v>
+        <v>173.3722355523277</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>90.58066941881005</v>
+        <v>86.82810320095946</v>
       </c>
       <c r="S8" t="n">
-        <v>187.5123304152058</v>
+        <v>187.088949271429</v>
       </c>
       <c r="T8" t="n">
-        <v>218.9641928127885</v>
+        <v>216.605579338167</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2686593971317</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27938,19 +27940,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>155.0596109253296</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.8385185906377</v>
+        <v>136.8285776632552</v>
       </c>
       <c r="H9" t="n">
-        <v>107.3582211803319</v>
+        <v>107.2622127500849</v>
       </c>
       <c r="I9" t="n">
-        <v>72.00962059397116</v>
+        <v>71.66735620821322</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,22 +27979,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>68.80362453272261</v>
+        <v>68.18641502383224</v>
       </c>
       <c r="S9" t="n">
-        <v>162.3030441088983</v>
+        <v>162.1183957428239</v>
       </c>
       <c r="T9" t="n">
-        <v>198.1292300623896</v>
+        <v>198.0891611489487</v>
       </c>
       <c r="U9" t="n">
-        <v>225.908158490674</v>
+        <v>223.3220349522222</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>230.2151176193539</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>249.4177015988328</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28023,16 +28025,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.5676055192152</v>
+        <v>167.559271379635</v>
       </c>
       <c r="H10" t="n">
-        <v>158.4629941912556</v>
+        <v>158.3888961138979</v>
       </c>
       <c r="I10" t="n">
-        <v>142.7184689252781</v>
+        <v>142.4678386186325</v>
       </c>
       <c r="J10" t="n">
-        <v>63.42664968215054</v>
+        <v>62.83742601383648</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>50.71025749466926</v>
+        <v>47.42691742212128</v>
       </c>
       <c r="R10" t="n">
-        <v>158.2569640235438</v>
+        <v>155.2967612719884</v>
       </c>
       <c r="S10" t="n">
-        <v>216.6383466748816</v>
+        <v>213.9076358214004</v>
       </c>
       <c r="T10" t="n">
-        <v>226.1366284787861</v>
+        <v>226.1010189733074</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2959362379867</v>
+        <v>284.0182000864682</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292598</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y17" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859148</v>
       </c>
       <c r="M19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N22" t="n">
-        <v>46.97513661859267</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y22" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859212</v>
       </c>
       <c r="K25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y25" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="C26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="D26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="E26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="F26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="G26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="H26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="T26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="U26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="V26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="W26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="X26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="Y26" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="C28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="D28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="E28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="F28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="G28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="H28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="I28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="J28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="K28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="L28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="M28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="N28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="O28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="P28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="Q28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="R28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="S28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="T28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="U28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="V28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="W28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="X28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="Y28" t="n">
-        <v>41.57692977292598</v>
+        <v>46.25844446485682</v>
       </c>
     </row>
     <row r="29">
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292598</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859259</v>
+        <v>46.25844446485682</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.9751366185926</v>
       </c>
     </row>
     <row r="35">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="C41" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="D41" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="E41" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="F41" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="G41" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="H41" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="I41" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="T41" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="U41" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="V41" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="W41" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="X41" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="Y41" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="C43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="D43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="E43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="F43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="G43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="H43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="I43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="J43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="K43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="L43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="M43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="N43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="O43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="P43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="R43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="S43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="T43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="U43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="V43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="W43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="X43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.398206845666614</v>
+        <v>0.7166921537357709</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>0.7166921537357709</v>
       </c>
     </row>
   </sheetData>
@@ -31063,7 +31065,7 @@
         <v>2.635322776677227</v>
       </c>
       <c r="O2" t="n">
-        <v>2.488460569060429</v>
+        <v>2.48846056906043</v>
       </c>
       <c r="P2" t="n">
         <v>2.123843523123063</v>
@@ -31072,7 +31074,7 @@
         <v>1.594918036231644</v>
       </c>
       <c r="R2" t="n">
-        <v>0.9277519194678707</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S2" t="n">
         <v>0.3365553796171231</v>
@@ -31197,10 +31199,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.006624998659945164</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05890226081296705</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I4" t="n">
         <v>0.1992317778827147</v>
@@ -31212,7 +31214,7 @@
         <v>0.7697043897645381</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9849566189522113</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M4" t="n">
         <v>1.038498653576677</v>
@@ -31230,13 +31232,13 @@
         <v>0.5547532968795902</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2978840306553525</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S4" t="n">
         <v>0.1154556584646807</v>
       </c>
       <c r="T4" t="n">
-        <v>0.02830681245612933</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U4" t="n">
         <v>0.0003613635632697367</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1190291801630114</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H5" t="n">
-        <v>1.219007591344441</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I5" t="n">
-        <v>4.588872468234503</v>
+        <v>3.566727381034957</v>
       </c>
       <c r="J5" t="n">
-        <v>10.1024528798604</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K5" t="n">
-        <v>15.14095807616068</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L5" t="n">
-        <v>18.78369734857445</v>
+        <v>14.5997362345548</v>
       </c>
       <c r="M5" t="n">
-        <v>20.9004825312984</v>
+        <v>16.24501962895154</v>
       </c>
       <c r="N5" t="n">
-        <v>21.23867418943655</v>
+        <v>16.50788103019311</v>
       </c>
       <c r="O5" t="n">
-        <v>20.05507777919061</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P5" t="n">
-        <v>17.11654489391626</v>
+        <v>13.30393245060769</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.85381237932841</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>7.476966738414775</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S5" t="n">
-        <v>2.712377442964626</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5210502361635828</v>
+        <v>0.4049892772318401</v>
       </c>
       <c r="U5" t="n">
-        <v>0.009522334413040914</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.06368622597118112</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6150748666164073</v>
+        <v>0.4780704592104726</v>
       </c>
       <c r="I6" t="n">
-        <v>2.192705587165666</v>
+        <v>1.704292963125436</v>
       </c>
       <c r="J6" t="n">
-        <v>6.016951726514091</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K6" t="n">
-        <v>10.28392886658323</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L6" t="n">
-        <v>13.82801147676896</v>
+        <v>10.74790103688213</v>
       </c>
       <c r="M6" t="n">
-        <v>16.13663716822427</v>
+        <v>12.54229356430018</v>
       </c>
       <c r="N6" t="n">
-        <v>16.56372593800469</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O6" t="n">
-        <v>15.15257324674852</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P6" t="n">
-        <v>12.16127590497054</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q6" t="n">
-        <v>8.129490880110771</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R6" t="n">
-        <v>3.954132521263335</v>
+        <v>3.073372125605564</v>
       </c>
       <c r="S6" t="n">
-        <v>1.182943714859438</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T6" t="n">
-        <v>0.2567001827522607</v>
+        <v>0.1995216857467866</v>
       </c>
       <c r="U6" t="n">
-        <v>0.004189883287577707</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0533923924952525</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4747069078214272</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I7" t="n">
-        <v>1.605654857948139</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J7" t="n">
-        <v>3.774842149414352</v>
+        <v>2.93401765828132</v>
       </c>
       <c r="K7" t="n">
-        <v>6.203225237175698</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L7" t="n">
-        <v>7.937992607885088</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M7" t="n">
-        <v>8.369500216323988</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N7" t="n">
-        <v>8.1704922079326</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O7" t="n">
-        <v>7.546771986510784</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P7" t="n">
-        <v>6.457567179607627</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.470884793397917</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R7" t="n">
-        <v>2.40071612074108</v>
+        <v>1.865970340473114</v>
       </c>
       <c r="S7" t="n">
-        <v>0.9304837855763547</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2281311315706243</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002912312317922867</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9438393492502272</v>
+        <v>0.9624188838098234</v>
       </c>
       <c r="H8" t="n">
-        <v>9.666094735508892</v>
+        <v>9.856372393817356</v>
       </c>
       <c r="I8" t="n">
-        <v>36.38736651196942</v>
+        <v>37.10365401807825</v>
       </c>
       <c r="J8" t="n">
-        <v>80.10718496842655</v>
+        <v>81.68409973975407</v>
       </c>
       <c r="K8" t="n">
-        <v>120.0599046221887</v>
+        <v>122.4232910914239</v>
       </c>
       <c r="L8" t="n">
-        <v>148.9449281068053</v>
+        <v>151.8769180068188</v>
       </c>
       <c r="M8" t="n">
-        <v>165.7299311340341</v>
+        <v>168.9923348317718</v>
       </c>
       <c r="N8" t="n">
-        <v>168.4116146850913</v>
+        <v>171.7268074853964</v>
       </c>
       <c r="O8" t="n">
-        <v>159.0263121559844</v>
+        <v>162.1567547095125</v>
       </c>
       <c r="P8" t="n">
-        <v>135.7252782213693</v>
+        <v>138.3970385154575</v>
       </c>
       <c r="Q8" t="n">
-        <v>101.9240315263455</v>
+        <v>103.9304122390181</v>
       </c>
       <c r="R8" t="n">
-        <v>59.28844852233964</v>
+        <v>60.45554521011887</v>
       </c>
       <c r="S8" t="n">
-        <v>21.50773917103957</v>
+        <v>21.93112031481637</v>
       </c>
       <c r="T8" t="n">
-        <v>4.131656751342872</v>
+        <v>4.212988663877504</v>
       </c>
       <c r="U8" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.07699351070478586</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.5149394999554168</v>
       </c>
       <c r="H9" t="n">
-        <v>4.877223056164522</v>
+        <v>4.973231486411526</v>
       </c>
       <c r="I9" t="n">
-        <v>17.38701225744391</v>
+        <v>17.72927664320185</v>
       </c>
       <c r="J9" t="n">
-        <v>47.71129057803813</v>
+        <v>48.65049021289313</v>
       </c>
       <c r="K9" t="n">
-        <v>81.54619494042197</v>
+        <v>83.15143670990605</v>
       </c>
       <c r="L9" t="n">
-        <v>109.6489225228995</v>
+        <v>111.8073681811093</v>
       </c>
       <c r="M9" t="n">
-        <v>127.9551207786668</v>
+        <v>130.4739250544931</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>133.9271816134047</v>
       </c>
       <c r="O9" t="n">
-        <v>120.1520068700076</v>
+        <v>122.5172063775504</v>
       </c>
       <c r="P9" t="n">
-        <v>96.43257830122204</v>
+        <v>98.3308594256971</v>
       </c>
       <c r="Q9" t="n">
-        <v>64.46262480772582</v>
+        <v>65.73157546799321</v>
       </c>
       <c r="R9" t="n">
-        <v>31.35420961992052</v>
+        <v>31.97141912881089</v>
       </c>
       <c r="S9" t="n">
-        <v>9.380126994939479</v>
+        <v>9.564775361013984</v>
       </c>
       <c r="T9" t="n">
-        <v>2.035498632431968</v>
+        <v>2.075567545872929</v>
       </c>
       <c r="U9" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03387759868127743</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.43170797882371</v>
       </c>
       <c r="H10" t="n">
-        <v>3.764178316183975</v>
+        <v>3.838276393541715</v>
       </c>
       <c r="I10" t="n">
-        <v>12.73200600198015</v>
+        <v>12.98263630862576</v>
       </c>
       <c r="J10" t="n">
-        <v>29.93253043452224</v>
+        <v>30.52175410283629</v>
       </c>
       <c r="K10" t="n">
-        <v>49.18834241393778</v>
+        <v>50.15661790333648</v>
       </c>
       <c r="L10" t="n">
-        <v>62.94414333627064</v>
+        <v>64.18320259711777</v>
       </c>
       <c r="M10" t="n">
-        <v>66.36577372797569</v>
+        <v>67.67218798961119</v>
       </c>
       <c r="N10" t="n">
-        <v>64.78774396352233</v>
+        <v>66.0630946139956</v>
       </c>
       <c r="O10" t="n">
-        <v>59.84196775054031</v>
+        <v>61.01996049773678</v>
       </c>
       <c r="P10" t="n">
-        <v>51.20514142997091</v>
+        <v>52.21311772973305</v>
       </c>
       <c r="Q10" t="n">
-        <v>35.45178575702512</v>
+        <v>36.14965629950176</v>
       </c>
       <c r="R10" t="n">
-        <v>19.03642735362569</v>
+        <v>19.41116057510972</v>
       </c>
       <c r="S10" t="n">
-        <v>7.378251362090666</v>
+        <v>7.523492685500471</v>
       </c>
       <c r="T10" t="n">
-        <v>1.808960949495364</v>
+        <v>1.844570454974033</v>
       </c>
       <c r="U10" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02354770793583875</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31847,10 +31849,10 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O12" t="n">
         <v>557.7086478970249</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32233,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002919</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32385,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32792,7 +32794,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233474</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353165</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33503,7 +33505,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233474</v>
@@ -33740,7 +33742,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233474</v>
@@ -33977,7 +33979,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138799</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233474</v>
@@ -34141,7 +34143,7 @@
         <v>769.2673490574991</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O41" t="n">
         <v>738.1512123099056</v>
@@ -34466,7 +34468,7 @@
         <v>447.6103584002925</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -35179,19 +35181,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>2.481006114714933</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>2.481006114714933</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.481006114714933</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.58546953007135</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35495,10 +35497,10 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O12" t="n">
         <v>415.1124034525805</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
         <v>394.6085160120763</v>
@@ -35802,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K16" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L16" t="n">
         <v>366.7325087887907</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859617</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36045,7 +36047,7 @@
         <v>253.0227961629122</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887896</v>
       </c>
       <c r="M19" t="n">
         <v>394.6085160120764</v>
@@ -36054,13 +36056,13 @@
         <v>391.8320827861327</v>
       </c>
       <c r="O19" t="n">
-        <v>349.3282668412324</v>
+        <v>349.3282668412323</v>
       </c>
       <c r="P19" t="n">
         <v>281.932207763703</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3693751564863</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K22" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M22" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N22" t="n">
         <v>391.8320827861327</v>
@@ -36294,7 +36296,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P22" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3693751564862</v>
@@ -36355,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36367,19 +36369,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>574.0516558380592</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>80.7515943981403</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36442,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013291</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165831</v>
       </c>
       <c r="K25" t="n">
         <v>253.0227961629121</v>
@@ -36522,7 +36524,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M25" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N25" t="n">
         <v>391.8320827861326</v>
@@ -36592,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923319</v>
@@ -36613,10 +36615,10 @@
         <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>329.1988939204492</v>
+        <v>428.7686861514858</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.15534638599217</v>
+        <v>91.83686107792302</v>
       </c>
       <c r="K28" t="n">
-        <v>247.6245893172455</v>
+        <v>252.3061040091764</v>
       </c>
       <c r="L28" t="n">
-        <v>361.334301943124</v>
+        <v>366.0158166350549</v>
       </c>
       <c r="M28" t="n">
-        <v>389.2103091664097</v>
+        <v>393.8918238583406</v>
       </c>
       <c r="N28" t="n">
-        <v>386.433875940466</v>
+        <v>391.1153906323968</v>
       </c>
       <c r="O28" t="n">
-        <v>343.9300599955657</v>
+        <v>348.6115746874966</v>
       </c>
       <c r="P28" t="n">
-        <v>276.5340009180363</v>
+        <v>281.2155156099672</v>
       </c>
       <c r="Q28" t="n">
-        <v>119.9711683108196</v>
+        <v>124.6526830027505</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36831,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
@@ -36844,13 +36846,13 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>751.7438021089679</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>329.1988939204492</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
         <v>59.61319854222472</v>
@@ -36911,7 +36913,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609574</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165878</v>
+        <v>91.83686107792302</v>
       </c>
       <c r="K31" t="n">
-        <v>253.0227961629121</v>
+        <v>252.3061040091764</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.0158166350549</v>
       </c>
       <c r="M31" t="n">
-        <v>394.6085160120764</v>
+        <v>393.8918238583406</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.1153906323968</v>
       </c>
       <c r="O31" t="n">
-        <v>349.3282668412323</v>
+        <v>348.6115746874966</v>
       </c>
       <c r="P31" t="n">
-        <v>281.932207763703</v>
+        <v>281.2155156099672</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564862</v>
+        <v>124.6526830027505</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
         <v>337.1912865554004</v>
@@ -37078,19 +37080,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>529.1913967441351</v>
+        <v>729.3383664626282</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,7 +37153,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013291</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37236,7 +37238,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37327,7 +37329,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222526</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37390,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013291</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687115</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554004</v>
@@ -37625,7 +37627,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340057</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013291</v>
@@ -37710,7 +37712,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37780,7 +37782,7 @@
         <v>190.7870009687124</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923318</v>
@@ -37789,7 +37791,7 @@
         <v>538.9211158302264</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O41" t="n">
         <v>508.0530008882189</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>50.97662345873277</v>
+        <v>46.29510876680195</v>
       </c>
       <c r="K43" t="n">
-        <v>211.4458663899861</v>
+        <v>206.7643516980553</v>
       </c>
       <c r="L43" t="n">
-        <v>325.1555790158646</v>
+        <v>320.4740643239338</v>
       </c>
       <c r="M43" t="n">
-        <v>353.0315862391503</v>
+        <v>348.3500715472195</v>
       </c>
       <c r="N43" t="n">
-        <v>350.2551530132066</v>
+        <v>345.5736383212757</v>
       </c>
       <c r="O43" t="n">
-        <v>307.7513370683063</v>
+        <v>303.0698223763754</v>
       </c>
       <c r="P43" t="n">
-        <v>240.3552779907769</v>
+        <v>235.6737632988461</v>
       </c>
       <c r="Q43" t="n">
-        <v>83.79244538356019</v>
+        <v>79.11093069162933</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38114,7 +38116,7 @@
         <v>313.6359509859623</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306617</v>
+        <v>46.29510876680195</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443195</v>
+        <v>206.7643516980553</v>
       </c>
       <c r="L46" t="n">
-        <v>319.757372170198</v>
+        <v>320.4740643239338</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934837</v>
+        <v>348.3500715472195</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675399</v>
+        <v>345.5736383212757</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226397</v>
+        <v>303.0698223763754</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451103</v>
+        <v>235.6737632988461</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789357</v>
+        <v>79.11093069162933</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
